--- a/GUI + Reviews/202512/DEZP.xlsx
+++ b/GUI + Reviews/202512/DEZP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE52FDA-F168-41A6-BAB6-B0CCD6CCCBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AEE79EC-CA13-4760-8FD1-7332C66A512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0980C1AD-7BD4-41EF-9C86-BD87DD50BFB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CC27E46-84D8-480A-99B4-25E809955A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="546">
   <si>
     <t>Name</t>
   </si>
@@ -185,6 +185,18 @@
     <t>NL0011794037</t>
   </si>
   <si>
+    <t>AIB GROUP PLC</t>
+  </si>
+  <si>
+    <t>A5G-IE</t>
+  </si>
+  <si>
+    <t>IE00BF0L3536</t>
+  </si>
+  <si>
+    <t>XMSM</t>
+  </si>
+  <si>
     <t>AIR LIQUIDE</t>
   </si>
   <si>
@@ -356,6 +368,15 @@
     <t>ES0113900J37</t>
   </si>
   <si>
+    <t>BANK OF IRELAND GP</t>
+  </si>
+  <si>
+    <t>BIRG-IE</t>
+  </si>
+  <si>
+    <t>IE00BD1RP616</t>
+  </si>
+  <si>
     <t>BANKINTER SA</t>
   </si>
   <si>
@@ -500,15 +521,6 @@
     <t>DE000CBK1001</t>
   </si>
   <si>
-    <t>COVESTRO AG</t>
-  </si>
-  <si>
-    <t>1COV-DE</t>
-  </si>
-  <si>
-    <t>DE0006062144</t>
-  </si>
-  <si>
     <t>CREDIT AGRICOLE</t>
   </si>
   <si>
@@ -791,18 +803,6 @@
     <t>IT0000062072</t>
   </si>
   <si>
-    <t>GREENCOAT REN.</t>
-  </si>
-  <si>
-    <t>GRP-IE</t>
-  </si>
-  <si>
-    <t>IE00BF2NR112</t>
-  </si>
-  <si>
-    <t>XESM</t>
-  </si>
-  <si>
     <t>HANNOVER RUECK SE</t>
   </si>
   <si>
@@ -929,6 +929,15 @@
     <t>FR0000121485</t>
   </si>
   <si>
+    <t>KERRY GROUP PLC</t>
+  </si>
+  <si>
+    <t>KRZ-IE</t>
+  </si>
+  <si>
+    <t>IE0004906560</t>
+  </si>
+  <si>
     <t>KESKO B</t>
   </si>
   <si>
@@ -938,6 +947,15 @@
     <t>FI0009000202</t>
   </si>
   <si>
+    <t>KINGSPAN GROUP PLC</t>
+  </si>
+  <si>
+    <t>KRX-IE</t>
+  </si>
+  <si>
+    <t>IE0004927939</t>
+  </si>
+  <si>
     <t>KONE OYJ</t>
   </si>
   <si>
@@ -1136,15 +1154,6 @@
     <t>FR0000133308</t>
   </si>
   <si>
-    <t>ORIGIN ENT. PLC</t>
-  </si>
-  <si>
-    <t>OIZ-IE</t>
-  </si>
-  <si>
-    <t>IE00B1WV4493</t>
-  </si>
-  <si>
     <t>ORION OYJ CLASS B</t>
   </si>
   <si>
@@ -1271,6 +1280,15 @@
     <t>DE0007037129</t>
   </si>
   <si>
+    <t>RYANAIR HOLD. PLC</t>
+  </si>
+  <si>
+    <t>RYA-IE</t>
+  </si>
+  <si>
+    <t>IE00BYTBXV33</t>
+  </si>
+  <si>
     <t>SAFRAN</t>
   </si>
   <si>
@@ -1539,15 +1557,6 @@
   </si>
   <si>
     <t>GB00BVZK7T90</t>
-  </si>
-  <si>
-    <t>UNIPHAR PLC</t>
-  </si>
-  <si>
-    <t>UPR-IE</t>
-  </si>
-  <si>
-    <t>IE00BJ5FQX74</t>
   </si>
   <si>
     <t>UNIPOL</t>
@@ -1967,22 +1976,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2979C96-64DD-4B3A-8EF3-74B9112CB4BF}" name="Universe" displayName="Universe" ref="A1:M174" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M174" xr:uid="{C2979C96-64DD-4B3A-8EF3-74B9112CB4BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A16294F0-69DA-4C0F-A7D0-0B040EB32FEB}" name="Universe" displayName="Universe" ref="A1:M175" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:M175" xr:uid="{A16294F0-69DA-4C0F-A7D0-0B040EB32FEB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{41CA0949-D570-468D-825B-F5AF657392DE}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{8B80D0DD-A073-4F3A-8EE6-13330F0D9DC7}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2719EF51-9AFE-4291-946D-96F3A4226255}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{EE59D0A9-8745-4DD2-A084-CF343C422EAB}" name="MIC" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C0A4BA24-5CE2-4DCF-917F-2CADC0505F69}" name="Currency (Local)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{6458B497-5806-4D4B-8541-5971C328F68F}" name="Price (EUR) " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1D427C65-5C72-4B84-A90D-04231440E3C2}" name="NOSH" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{3CB15C2A-360D-4EA1-B8EA-C4533FAB4752}" name="20 days AVG turnover EUR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{EDBBA586-C4DB-4555-B197-A80893B7E061}" name="3M AVG Turnover EUR" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{59D20B57-6A8C-4E57-9427-2FCA8F4F4968}" name="3M AVG Turnover USD" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{A4A1CF47-924E-4A55-B03B-065246F2D599}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{220F7E1E-2D8B-49ED-BF1F-914C5AA73AF5}" name="6M AVG Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{05D348F5-6428-4328-86FB-44C9F89D8FC4}" name="12M AVG Turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{14BE8DCC-AFE3-4690-B1EE-04F931D9E600}" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{62772B3B-9152-4830-9452-DD96A712036B}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{50237A9A-E4B2-4C09-8CD9-6823C2832362}" name="ISIN" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{A2452321-1BD0-4F9E-BC8A-4AF1F704EAAF}" name="MIC" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{0D943FF7-F07E-44D5-A756-1B85DF45ABE7}" name="Currency (Local)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{2E0BC795-939A-45BA-9F58-F29F9306CAAD}" name="Price (EUR) " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5D6E470C-8DBC-4746-9240-88982FC523AF}" name="NOSH" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B92B5562-44DC-4236-83B4-A26F8C453990}" name="20 days AVG turnover EUR" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{273BCF9E-D2FB-4F06-B83E-261309E0EA3E}" name="3M AVG Turnover EUR" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{ED69DCC9-A38A-4469-AB23-684A20937E0D}" name="3M AVG Turnover USD" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{D11FEF36-D468-4F61-96FF-D092AB9EA973}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{815BE9ED-1B3E-4FFA-BE85-A53D823207CC}" name="6M AVG Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{FF72B87B-A503-4747-BACE-71EAAE0EDA54}" name="12M AVG Turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2304,8 +2313,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276F2A9C-A186-485D-9AC3-4B085232C5E9}">
-  <dimension ref="A1:M174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CA2B4E-F5CB-463C-9861-CA6E442C93AE}">
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2794,28 +2803,28 @@
         <v>17</v>
       </c>
       <c r="F12" s="1">
-        <v>165.94</v>
+        <v>8.3849999999999998</v>
       </c>
       <c r="G12" s="1">
-        <v>578534275</v>
+        <v>2136766718</v>
       </c>
       <c r="H12" s="1">
-        <v>92896515.384959996</v>
+        <v>33623690.338653304</v>
       </c>
       <c r="I12" s="1">
-        <v>98286987.256642297</v>
+        <v>33113797.439849999</v>
       </c>
       <c r="J12" s="1">
-        <v>114554343.79323301</v>
+        <v>38604765.560353503</v>
       </c>
       <c r="K12" s="1">
-        <v>96960052.230783895</v>
+        <v>30250354.957504999</v>
       </c>
       <c r="L12" s="1">
-        <v>103003521.114912</v>
+        <v>31078317.808056802</v>
       </c>
       <c r="M12" s="1">
-        <v>119505514.533602</v>
+        <v>34265749.081349202</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2829,198 +2838,198 @@
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="1">
-        <v>202.75</v>
+        <v>165.94</v>
       </c>
       <c r="G13" s="1">
-        <v>792283683</v>
+        <v>578534275</v>
       </c>
       <c r="H13" s="1">
-        <v>167291165.44933301</v>
+        <v>92896515.384959996</v>
       </c>
       <c r="I13" s="1">
-        <v>168850631.615242</v>
+        <v>98286987.256642297</v>
       </c>
       <c r="J13" s="1">
-        <v>196902206.79192001</v>
+        <v>114554343.79323301</v>
       </c>
       <c r="K13" s="1">
-        <v>167366310.91666001</v>
+        <v>96960052.230783895</v>
       </c>
       <c r="L13" s="1">
-        <v>170951676.26156101</v>
+        <v>103003521.114912</v>
       </c>
       <c r="M13" s="1">
-        <v>188719257.51472899</v>
+        <v>119505514.533602</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="1">
-        <v>53.86</v>
+        <v>202.75</v>
       </c>
       <c r="G14" s="1">
-        <v>171052308</v>
+        <v>792283683</v>
       </c>
       <c r="H14" s="1">
-        <v>26636037.8386667</v>
+        <v>167291165.44933301</v>
       </c>
       <c r="I14" s="1">
-        <v>23898204.626363698</v>
+        <v>168850631.615242</v>
       </c>
       <c r="J14" s="1">
-        <v>27850274.641827401</v>
+        <v>196902206.79192001</v>
       </c>
       <c r="K14" s="1">
-        <v>22935438.763799999</v>
+        <v>167366310.91666001</v>
       </c>
       <c r="L14" s="1">
-        <v>24032936.720151499</v>
+        <v>170951676.26156101</v>
       </c>
       <c r="M14" s="1">
-        <v>26116176.439019602</v>
+        <v>188719257.51472899</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="1">
-        <v>363.1</v>
+        <v>53.86</v>
       </c>
       <c r="G15" s="1">
-        <v>386166700</v>
+        <v>171052308</v>
       </c>
       <c r="H15" s="1">
-        <v>172849275.063333</v>
+        <v>26636037.8386667</v>
       </c>
       <c r="I15" s="1">
-        <v>168303975.97878799</v>
+        <v>23898204.626363698</v>
       </c>
       <c r="J15" s="1">
-        <v>196175264.25025299</v>
+        <v>27850274.641827401</v>
       </c>
       <c r="K15" s="1">
-        <v>178096131.97499999</v>
+        <v>22935438.763799999</v>
       </c>
       <c r="L15" s="1">
-        <v>192105221.688636</v>
+        <v>24032936.720151499</v>
       </c>
       <c r="M15" s="1">
-        <v>236156018.20276701</v>
+        <v>26116176.439019602</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="1">
-        <v>61.84</v>
+        <v>363.1</v>
       </c>
       <c r="G16" s="1">
-        <v>450499200</v>
+        <v>386166700</v>
       </c>
       <c r="H16" s="1">
-        <v>42585387.600000001</v>
+        <v>172849275.063333</v>
       </c>
       <c r="I16" s="1">
-        <v>40071937.1187879</v>
+        <v>168303975.97878799</v>
       </c>
       <c r="J16" s="1">
-        <v>46709167.596201099</v>
+        <v>196175264.25025299</v>
       </c>
       <c r="K16" s="1">
-        <v>39456026.0022</v>
+        <v>178096131.97499999</v>
       </c>
       <c r="L16" s="1">
-        <v>41836326.664696999</v>
+        <v>192105221.688636</v>
       </c>
       <c r="M16" s="1">
-        <v>47681926.781686299</v>
+        <v>236156018.20276701</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="1">
-        <v>61.35</v>
+        <v>61.84</v>
       </c>
       <c r="G17" s="1">
-        <v>104000000</v>
+        <v>450499200</v>
       </c>
       <c r="H17" s="1">
-        <v>4583619.33</v>
+        <v>42585387.600000001</v>
       </c>
       <c r="I17" s="1">
-        <v>4415337.4227272701</v>
+        <v>40071937.1187879</v>
       </c>
       <c r="J17" s="1">
-        <v>5143482.27414372</v>
+        <v>46709167.596201099</v>
       </c>
       <c r="K17" s="1">
-        <v>4454658.176</v>
+        <v>39456026.0022</v>
       </c>
       <c r="L17" s="1">
-        <v>4494458.6848484902</v>
+        <v>41836326.664696999</v>
       </c>
       <c r="M17" s="1">
-        <v>5184055.7083399203</v>
+        <v>47681926.781686299</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -3034,127 +3043,127 @@
         <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="1">
-        <v>34.049999999999997</v>
+        <v>61.35</v>
       </c>
       <c r="G18" s="1">
-        <v>852809772</v>
+        <v>104000000</v>
       </c>
       <c r="H18" s="1">
-        <v>64674461.322366603</v>
+        <v>4583619.33</v>
       </c>
       <c r="I18" s="1">
-        <v>60438822.291762099</v>
+        <v>4415337.4227272701</v>
       </c>
       <c r="J18" s="1">
-        <v>70415381.574164093</v>
+        <v>5143482.27414372</v>
       </c>
       <c r="K18" s="1">
-        <v>55963210.089063004</v>
+        <v>4454658.176</v>
       </c>
       <c r="L18" s="1">
-        <v>53981579.3471689</v>
+        <v>4494458.6848484902</v>
       </c>
       <c r="M18" s="1">
-        <v>62468386.297103196</v>
+        <v>5184055.7083399203</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="1">
-        <v>800.4</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="G19" s="1">
-        <v>61568926</v>
+        <v>852809772</v>
       </c>
       <c r="H19" s="1">
-        <v>55411929.293333299</v>
+        <v>64674461.322366603</v>
       </c>
       <c r="I19" s="1">
-        <v>71799660.425757498</v>
+        <v>60438822.291762099</v>
       </c>
       <c r="J19" s="1">
-        <v>83818950.664562598</v>
+        <v>70415381.574164093</v>
       </c>
       <c r="K19" s="1">
-        <v>62904879.689000003</v>
+        <v>55963210.089063004</v>
       </c>
       <c r="L19" s="1">
-        <v>56477555.834469698</v>
+        <v>53981579.3471689</v>
       </c>
       <c r="M19" s="1">
-        <v>49963237.465294197</v>
+        <v>62468386.297103196</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="1">
-        <v>475.3</v>
+        <v>800.4</v>
       </c>
       <c r="G20" s="1">
-        <v>49328548</v>
+        <v>61568926</v>
       </c>
       <c r="H20" s="1">
-        <v>71844740.079999998</v>
+        <v>55411929.293333299</v>
       </c>
       <c r="I20" s="1">
-        <v>80390254.263636395</v>
+        <v>71799660.425757498</v>
       </c>
       <c r="J20" s="1">
-        <v>93759694.750503898</v>
+        <v>83818950.664562598</v>
       </c>
       <c r="K20" s="1">
-        <v>77123750.350999996</v>
+        <v>62904879.689000003</v>
       </c>
       <c r="L20" s="1">
-        <v>75521118.170454606</v>
+        <v>56477555.834469698</v>
       </c>
       <c r="M20" s="1">
-        <v>79359002.633333296</v>
+        <v>49963237.465294197</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>25</v>
@@ -3163,39 +3172,39 @@
         <v>17</v>
       </c>
       <c r="F21" s="1">
-        <v>834</v>
+        <v>475.3</v>
       </c>
       <c r="G21" s="1">
-        <v>388147674</v>
+        <v>49328548</v>
       </c>
       <c r="H21" s="1">
-        <v>519075447.359999</v>
+        <v>71844740.079999998</v>
       </c>
       <c r="I21" s="1">
-        <v>539381837.15833199</v>
+        <v>80390254.263636395</v>
       </c>
       <c r="J21" s="1">
-        <v>628790744.55153298</v>
+        <v>93759694.750503898</v>
       </c>
       <c r="K21" s="1">
-        <v>498206589.87099898</v>
+        <v>77123750.350999996</v>
       </c>
       <c r="L21" s="1">
-        <v>476870092.68939298</v>
+        <v>75521118.170454606</v>
       </c>
       <c r="M21" s="1">
-        <v>507485028.18274498</v>
+        <v>79359002.633333296</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -3204,110 +3213,110 @@
         <v>17</v>
       </c>
       <c r="F22" s="1">
-        <v>57.4</v>
+        <v>834</v>
       </c>
       <c r="G22" s="1">
-        <v>209113565</v>
+        <v>388147674</v>
       </c>
       <c r="H22" s="1">
-        <v>19694030.068</v>
+        <v>519075447.359999</v>
       </c>
       <c r="I22" s="1">
-        <v>24437387.573484801</v>
+        <v>539381837.15833199</v>
       </c>
       <c r="J22" s="1">
-        <v>28518085.073169298</v>
+        <v>628790744.55153298</v>
       </c>
       <c r="K22" s="1">
-        <v>22478012.581999999</v>
+        <v>498206589.87099898</v>
       </c>
       <c r="L22" s="1">
-        <v>22533627.779318199</v>
+        <v>476870092.68939298</v>
       </c>
       <c r="M22" s="1">
-        <v>23462466.003313702</v>
+        <v>507485028.18274498</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="1">
-        <v>38.14</v>
+        <v>57.4</v>
       </c>
       <c r="G23" s="1">
-        <v>2123594281</v>
+        <v>209113565</v>
       </c>
       <c r="H23" s="1">
-        <v>162393494.675733</v>
+        <v>19694030.068</v>
       </c>
       <c r="I23" s="1">
-        <v>151847210.35128799</v>
+        <v>24437387.573484801</v>
       </c>
       <c r="J23" s="1">
-        <v>176913247.69380099</v>
+        <v>28518085.073169298</v>
       </c>
       <c r="K23" s="1">
-        <v>144296844.14829999</v>
+        <v>22478012.581999999</v>
       </c>
       <c r="L23" s="1">
-        <v>151563173.118258</v>
+        <v>22533627.779318199</v>
       </c>
       <c r="M23" s="1">
-        <v>159939019.05349001</v>
+        <v>23462466.003313702</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="1">
-        <v>0.78239999999999998</v>
+        <v>38.14</v>
       </c>
       <c r="G24" s="1">
-        <v>15113989952</v>
+        <v>2123594281</v>
       </c>
       <c r="H24" s="1">
-        <v>42281788.368146703</v>
+        <v>162393494.675733</v>
       </c>
       <c r="I24" s="1">
-        <v>44410570.451725803</v>
+        <v>151847210.35128799</v>
       </c>
       <c r="J24" s="1">
-        <v>51753046.606706403</v>
+        <v>176913247.69380099</v>
       </c>
       <c r="K24" s="1">
-        <v>47052440.681533001</v>
+        <v>144296844.14829999</v>
       </c>
       <c r="L24" s="1">
-        <v>47513541.516732603</v>
+        <v>151563173.118258</v>
       </c>
       <c r="M24" s="1">
-        <v>43425704.267117999</v>
+        <v>159939019.05349001</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -3321,45 +3330,45 @@
         <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="1">
-        <v>18.47</v>
+        <v>0.78239999999999998</v>
       </c>
       <c r="G25" s="1">
-        <v>745388391</v>
+        <v>15113989952</v>
       </c>
       <c r="H25" s="1">
-        <v>27151546.544</v>
+        <v>42281788.368146703</v>
       </c>
       <c r="I25" s="1">
-        <v>18701062.451742399</v>
+        <v>44410570.451725803</v>
       </c>
       <c r="J25" s="1">
-        <v>21774070.150373701</v>
+        <v>51753046.606706403</v>
       </c>
       <c r="K25" s="1">
-        <v>18639151.426899999</v>
+        <v>47052440.681533001</v>
       </c>
       <c r="L25" s="1">
-        <v>22012948.9138931</v>
+        <v>47513541.516732603</v>
       </c>
       <c r="M25" s="1">
-        <v>21600473.7042659</v>
+        <v>43425704.267117999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -3368,39 +3377,39 @@
         <v>17</v>
       </c>
       <c r="F26" s="1">
-        <v>8.4130000000000003</v>
+        <v>18.47</v>
       </c>
       <c r="G26" s="1">
-        <v>3038418183</v>
+        <v>745388391</v>
       </c>
       <c r="H26" s="1">
-        <v>279798875.79470003</v>
+        <v>27151546.544</v>
       </c>
       <c r="I26" s="1">
-        <v>245862528.75407499</v>
+        <v>18701062.451742399</v>
       </c>
       <c r="J26" s="1">
-        <v>286921509.29607397</v>
+        <v>21774070.150373701</v>
       </c>
       <c r="K26" s="1">
-        <v>202184074.34628999</v>
+        <v>18639151.426899999</v>
       </c>
       <c r="L26" s="1">
-        <v>176112107.98606101</v>
+        <v>22012948.9138931</v>
       </c>
       <c r="M26" s="1">
-        <v>154877686.02612901</v>
+        <v>21600473.7042659</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>16</v>
@@ -3409,80 +3418,80 @@
         <v>17</v>
       </c>
       <c r="F27" s="1">
-        <v>12.49</v>
+        <v>8.4130000000000003</v>
       </c>
       <c r="G27" s="1">
-        <v>1515182126</v>
+        <v>3038418183</v>
       </c>
       <c r="H27" s="1">
-        <v>98183842.557333395</v>
+        <v>279798875.79470003</v>
       </c>
       <c r="I27" s="1">
-        <v>86464567.5744697</v>
+        <v>245862528.75407499</v>
       </c>
       <c r="J27" s="1">
-        <v>100818039.01477601</v>
+        <v>286921509.29607397</v>
       </c>
       <c r="K27" s="1">
-        <v>81810215.015719995</v>
+        <v>202184074.34628999</v>
       </c>
       <c r="L27" s="1">
-        <v>78059309.205129802</v>
+        <v>176112107.98606101</v>
       </c>
       <c r="M27" s="1">
-        <v>93365593.060613096</v>
+        <v>154877686.02612901</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="1">
-        <v>3.0939999999999999</v>
+        <v>12.49</v>
       </c>
       <c r="G28" s="1">
-        <v>5023677700</v>
+        <v>1515182126</v>
       </c>
       <c r="H28" s="1">
-        <v>52006493.146866702</v>
+        <v>98183842.557333395</v>
       </c>
       <c r="I28" s="1">
-        <v>48883824.0883727</v>
+        <v>86464567.5744697</v>
       </c>
       <c r="J28" s="1">
-        <v>57007826.622915402</v>
+        <v>100818039.01477601</v>
       </c>
       <c r="K28" s="1">
-        <v>48183965.247700997</v>
+        <v>81810215.015719995</v>
       </c>
       <c r="L28" s="1">
-        <v>46430482.898830302</v>
+        <v>78059309.205129802</v>
       </c>
       <c r="M28" s="1">
-        <v>42258777.3951298</v>
+        <v>93365593.060613096</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>32</v>
@@ -3491,39 +3500,39 @@
         <v>17</v>
       </c>
       <c r="F29" s="1">
-        <v>8.8049999999999997</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="G29" s="1">
-        <v>14885325000</v>
+        <v>5023677700</v>
       </c>
       <c r="H29" s="1">
-        <v>248319441.05223399</v>
+        <v>52006493.146866702</v>
       </c>
       <c r="I29" s="1">
-        <v>217400667.12145901</v>
+        <v>48883824.0883727</v>
       </c>
       <c r="J29" s="1">
-        <v>253325577.49467301</v>
+        <v>57007826.622915402</v>
       </c>
       <c r="K29" s="1">
-        <v>199845154.79542801</v>
+        <v>48183965.247700997</v>
       </c>
       <c r="L29" s="1">
-        <v>193680299.884783</v>
+        <v>46430482.898830302</v>
       </c>
       <c r="M29" s="1">
-        <v>199340830.08776501</v>
+        <v>42258777.3951298</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>32</v>
@@ -3532,121 +3541,121 @@
         <v>17</v>
       </c>
       <c r="F30" s="1">
-        <v>13.35</v>
+        <v>8.8049999999999997</v>
       </c>
       <c r="G30" s="1">
-        <v>898866150</v>
+        <v>14885325000</v>
       </c>
       <c r="H30" s="1">
-        <v>30538660.5319</v>
+        <v>248319441.05223399</v>
       </c>
       <c r="I30" s="1">
-        <v>21167419.294939399</v>
+        <v>217400667.12145901</v>
       </c>
       <c r="J30" s="1">
-        <v>24645872.701529101</v>
+        <v>253325577.49467301</v>
       </c>
       <c r="K30" s="1">
-        <v>19780685.879659999</v>
+        <v>199845154.79542801</v>
       </c>
       <c r="L30" s="1">
-        <v>24741654.534212101</v>
+        <v>193680299.884783</v>
       </c>
       <c r="M30" s="1">
-        <v>23672312.835145101</v>
+        <v>199340830.08776501</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="1">
-        <v>43.79</v>
+        <v>15.285</v>
       </c>
       <c r="G31" s="1">
-        <v>893854900</v>
+        <v>952667062</v>
       </c>
       <c r="H31" s="1">
-        <v>99043942.280333295</v>
+        <v>34890746.173193403</v>
       </c>
       <c r="I31" s="1">
-        <v>92868303.067121193</v>
+        <v>27427016.812621199</v>
       </c>
       <c r="J31" s="1">
-        <v>108191934.593705</v>
+        <v>31954007.670451399</v>
       </c>
       <c r="K31" s="1">
-        <v>102183569.09805</v>
+        <v>24540544.156133998</v>
       </c>
       <c r="L31" s="1">
-        <v>102948988.85159101</v>
+        <v>24393214.927760601</v>
       </c>
       <c r="M31" s="1">
-        <v>122880079.22833</v>
+        <v>26379539.3269106</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="1">
-        <v>111</v>
+        <v>13.35</v>
       </c>
       <c r="G32" s="1">
-        <v>77000000</v>
+        <v>898866150</v>
       </c>
       <c r="H32" s="1">
-        <v>10606246.553333299</v>
+        <v>30538660.5319</v>
       </c>
       <c r="I32" s="1">
-        <v>15120729.487878799</v>
+        <v>21167419.294939399</v>
       </c>
       <c r="J32" s="1">
-        <v>17643251.667031601</v>
+        <v>24645872.701529101</v>
       </c>
       <c r="K32" s="1">
-        <v>14749831.171499999</v>
+        <v>19780685.879659999</v>
       </c>
       <c r="L32" s="1">
-        <v>13972351.804166701</v>
+        <v>24741654.534212101</v>
       </c>
       <c r="M32" s="1">
-        <v>13553443.4614625</v>
+        <v>23672312.835145101</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>36</v>
@@ -3655,285 +3664,285 @@
         <v>17</v>
       </c>
       <c r="F33" s="1">
-        <v>27.585000000000001</v>
+        <v>43.79</v>
       </c>
       <c r="G33" s="1">
-        <v>982424100</v>
+        <v>893854900</v>
       </c>
       <c r="H33" s="1">
-        <v>64711634.033</v>
+        <v>99043942.280333295</v>
       </c>
       <c r="I33" s="1">
-        <v>59831212.094962098</v>
+        <v>92868303.067121193</v>
       </c>
       <c r="J33" s="1">
-        <v>69761047.993120596</v>
+        <v>108191934.593705</v>
       </c>
       <c r="K33" s="1">
-        <v>65891736.374425001</v>
+        <v>102183569.09805</v>
       </c>
       <c r="L33" s="1">
-        <v>70798654.328465894</v>
+        <v>102948988.85159101</v>
       </c>
       <c r="M33" s="1">
-        <v>80528977.131104693</v>
+        <v>122880079.22833</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="1">
-        <v>17.704999999999998</v>
+        <v>111</v>
       </c>
       <c r="G34" s="1">
-        <v>5763285600</v>
+        <v>77000000</v>
       </c>
       <c r="H34" s="1">
-        <v>367133785.72883302</v>
+        <v>10606246.553333299</v>
       </c>
       <c r="I34" s="1">
-        <v>178076885.36534101</v>
+        <v>15120729.487878799</v>
       </c>
       <c r="J34" s="1">
-        <v>206870092.04022601</v>
+        <v>17643251.667031601</v>
       </c>
       <c r="K34" s="1">
-        <v>154705054.66154999</v>
+        <v>14749831.171499999</v>
       </c>
       <c r="L34" s="1">
-        <v>143930722.37119299</v>
+        <v>13972351.804166701</v>
       </c>
       <c r="M34" s="1">
-        <v>135662523.73262399</v>
+        <v>13553443.4614625</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="1">
-        <v>122.8</v>
+        <v>27.585000000000001</v>
       </c>
       <c r="G35" s="1">
-        <v>81146738</v>
+        <v>982424100</v>
       </c>
       <c r="H35" s="1">
-        <v>53220086.113333397</v>
+        <v>64711634.033</v>
       </c>
       <c r="I35" s="1">
-        <v>60249187.567045502</v>
+        <v>59831212.094962098</v>
       </c>
       <c r="J35" s="1">
-        <v>70226437.618759006</v>
+        <v>69761047.993120596</v>
       </c>
       <c r="K35" s="1">
-        <v>56191432.636500001</v>
+        <v>65891736.374425001</v>
       </c>
       <c r="L35" s="1">
-        <v>55637346.0594697</v>
+        <v>70798654.328465894</v>
       </c>
       <c r="M35" s="1">
-        <v>57150646.3234118</v>
+        <v>80528977.131104693</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="1">
-        <v>85.08</v>
+        <v>17.704999999999998</v>
       </c>
       <c r="G36" s="1">
-        <v>561134950</v>
+        <v>5763285600</v>
       </c>
       <c r="H36" s="1">
-        <v>70224766.568000004</v>
+        <v>367133785.72883302</v>
       </c>
       <c r="I36" s="1">
-        <v>83149015.699697003</v>
+        <v>178076885.36534101</v>
       </c>
       <c r="J36" s="1">
-        <v>96887741.330895305</v>
+        <v>206870092.04022601</v>
       </c>
       <c r="K36" s="1">
-        <v>86135291.106600001</v>
+        <v>154705054.66154999</v>
       </c>
       <c r="L36" s="1">
-        <v>83732697.914090902</v>
+        <v>143930722.37119299</v>
       </c>
       <c r="M36" s="1">
-        <v>96091436.636086807</v>
+        <v>135662523.73262399</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="1">
-        <v>70.47</v>
+        <v>122.8</v>
       </c>
       <c r="G37" s="1">
-        <v>1116784757</v>
+        <v>81146738</v>
       </c>
       <c r="H37" s="1">
-        <v>193406350.51875299</v>
+        <v>53220086.113333397</v>
       </c>
       <c r="I37" s="1">
-        <v>208626228.82238901</v>
+        <v>60249187.567045502</v>
       </c>
       <c r="J37" s="1">
-        <v>243014105.80956301</v>
+        <v>70226437.618759006</v>
       </c>
       <c r="K37" s="1">
-        <v>192976695.211927</v>
+        <v>56191432.636500001</v>
       </c>
       <c r="L37" s="1">
-        <v>196214994.42096701</v>
+        <v>55637346.0594697</v>
       </c>
       <c r="M37" s="1">
-        <v>212917894.392795</v>
+        <v>57150646.3234118</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="1">
-        <v>10.185</v>
+        <v>85.08</v>
       </c>
       <c r="G38" s="1">
-        <v>1964323646</v>
+        <v>561134950</v>
       </c>
       <c r="H38" s="1">
-        <v>138615756.881567</v>
+        <v>70224766.568000004</v>
       </c>
       <c r="I38" s="1">
-        <v>118452609.213038</v>
+        <v>83149015.699697003</v>
       </c>
       <c r="J38" s="1">
-        <v>137925878.805994</v>
+        <v>96887741.330895305</v>
       </c>
       <c r="K38" s="1">
-        <v>128384546.882495</v>
+        <v>86135291.106600001</v>
       </c>
       <c r="L38" s="1">
-        <v>117505340.483454</v>
+        <v>83732697.914090902</v>
       </c>
       <c r="M38" s="1">
-        <v>118002533.07871599</v>
+        <v>96091436.636086807</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="1">
-        <v>27.08</v>
+        <v>70.47</v>
       </c>
       <c r="G39" s="1">
-        <v>453871520</v>
+        <v>1116784757</v>
       </c>
       <c r="H39" s="1">
-        <v>18940476.3288933</v>
+        <v>193406350.51875299</v>
       </c>
       <c r="I39" s="1">
-        <v>23901528.872463599</v>
+        <v>208626228.82238901</v>
       </c>
       <c r="J39" s="1">
-        <v>27905628.0882218</v>
+        <v>243014105.80956301</v>
       </c>
       <c r="K39" s="1">
-        <v>22756372.822225999</v>
+        <v>192976695.211927</v>
       </c>
       <c r="L39" s="1">
-        <v>24294406.259868201</v>
+        <v>196214994.42096701</v>
       </c>
       <c r="M39" s="1">
-        <v>29922019.682402398</v>
+        <v>212917894.392795</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>16</v>
@@ -3942,531 +3951,531 @@
         <v>17</v>
       </c>
       <c r="F40" s="1">
-        <v>49.96</v>
+        <v>10.185</v>
       </c>
       <c r="G40" s="1">
-        <v>192626154</v>
+        <v>1964323646</v>
       </c>
       <c r="H40" s="1">
-        <v>23942157.5253333</v>
+        <v>138615756.881567</v>
       </c>
       <c r="I40" s="1">
-        <v>23959602.1205303</v>
+        <v>118452609.213038</v>
       </c>
       <c r="J40" s="1">
-        <v>27903209.310544901</v>
+        <v>137925878.805994</v>
       </c>
       <c r="K40" s="1">
-        <v>24514151.200350001</v>
+        <v>128384546.882495</v>
       </c>
       <c r="L40" s="1">
-        <v>22778912.141793899</v>
+        <v>117505340.483454</v>
       </c>
       <c r="M40" s="1">
-        <v>23111633.744285699</v>
+        <v>118002533.07871599</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="1">
-        <v>9.2539999999999996</v>
+        <v>27.08</v>
       </c>
       <c r="G41" s="1">
-        <v>7085565400</v>
+        <v>453871520</v>
       </c>
       <c r="H41" s="1">
-        <v>135073762.49853301</v>
+        <v>18940476.3288933</v>
       </c>
       <c r="I41" s="1">
-        <v>67273797.403015196</v>
+        <v>23901528.872463599</v>
       </c>
       <c r="J41" s="1">
-        <v>78123008.163468003</v>
+        <v>27905628.0882218</v>
       </c>
       <c r="K41" s="1">
-        <v>59991050.236759998</v>
+        <v>22756372.822225999</v>
       </c>
       <c r="L41" s="1">
-        <v>58951377.241015203</v>
+        <v>24294406.259868201</v>
       </c>
       <c r="M41" s="1">
-        <v>62448678.087694898</v>
+        <v>29922019.682402398</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="1">
-        <v>131.5</v>
+        <v>49.96</v>
       </c>
       <c r="G42" s="1">
-        <v>171347471</v>
+        <v>192626154</v>
       </c>
       <c r="H42" s="1">
-        <v>50440521.519066699</v>
+        <v>23942157.5253333</v>
       </c>
       <c r="I42" s="1">
-        <v>54330509.319797002</v>
+        <v>23959602.1205303</v>
       </c>
       <c r="J42" s="1">
-        <v>63352843.131319202</v>
+        <v>27903209.310544901</v>
       </c>
       <c r="K42" s="1">
-        <v>58167259.959066004</v>
+        <v>24514151.200350001</v>
       </c>
       <c r="L42" s="1">
-        <v>57786122.206868201</v>
+        <v>22778912.141793899</v>
       </c>
       <c r="M42" s="1">
-        <v>68618805.063947499</v>
+        <v>23111633.744285699</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="1">
-        <v>12.984999999999999</v>
+        <v>9.2539999999999996</v>
       </c>
       <c r="G43" s="1">
-        <v>736314789</v>
+        <v>7085565400</v>
       </c>
       <c r="H43" s="1">
-        <v>28321516.230640002</v>
+        <v>135073762.49853301</v>
       </c>
       <c r="I43" s="1">
-        <v>31618996.200301498</v>
+        <v>67273797.403015196</v>
       </c>
       <c r="J43" s="1">
-        <v>36871077.798372298</v>
+        <v>78123008.163468003</v>
       </c>
       <c r="K43" s="1">
-        <v>30849225.684599001</v>
+        <v>59991050.236759998</v>
       </c>
       <c r="L43" s="1">
-        <v>34834093.925340198</v>
+        <v>58951377.241015203</v>
       </c>
       <c r="M43" s="1">
-        <v>37541819.934989803</v>
+        <v>62448678.087694898</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="1">
-        <v>25.63</v>
+        <v>131.5</v>
       </c>
       <c r="G44" s="1">
-        <v>706475400</v>
+        <v>171347471</v>
       </c>
       <c r="H44" s="1">
-        <v>44715686.855999999</v>
+        <v>50440521.519066699</v>
       </c>
       <c r="I44" s="1">
-        <v>30521395.460227299</v>
+        <v>54330509.319797002</v>
       </c>
       <c r="J44" s="1">
-        <v>35548691.2316847</v>
+        <v>63352843.131319202</v>
       </c>
       <c r="K44" s="1">
-        <v>30198140.196899999</v>
+        <v>58167259.959066004</v>
       </c>
       <c r="L44" s="1">
-        <v>31797454.522727299</v>
+        <v>57786122.206868201</v>
       </c>
       <c r="M44" s="1">
-        <v>38450299.7925639</v>
+        <v>68618805.063947499</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="1">
-        <v>31.84</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="G45" s="1">
-        <v>1127496200</v>
+        <v>736314789</v>
       </c>
       <c r="H45" s="1">
-        <v>104576397.55599999</v>
+        <v>28321516.230640002</v>
       </c>
       <c r="I45" s="1">
-        <v>118183874.52378801</v>
+        <v>31618996.200301498</v>
       </c>
       <c r="J45" s="1">
-        <v>137861147.53916299</v>
+        <v>36871077.798372298</v>
       </c>
       <c r="K45" s="1">
-        <v>127560834.85535</v>
+        <v>30849225.684599001</v>
       </c>
       <c r="L45" s="1">
-        <v>124180519.554583</v>
+        <v>34834093.925340198</v>
       </c>
       <c r="M45" s="1">
-        <v>124322164.938122</v>
+        <v>37541819.934989803</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="1">
-        <v>60.32</v>
+        <v>25.63</v>
       </c>
       <c r="G46" s="1">
-        <v>189000000</v>
+        <v>706475400</v>
       </c>
       <c r="H46" s="1">
-        <v>947594.74399999995</v>
+        <v>44715686.855999999</v>
       </c>
       <c r="I46" s="1">
-        <v>1636085.24545455</v>
+        <v>30521395.460227299</v>
       </c>
       <c r="J46" s="1">
-        <v>1911470.26337071</v>
+        <v>35548691.2316847</v>
       </c>
       <c r="K46" s="1">
-        <v>1621123.4136000001</v>
+        <v>30198140.196899999</v>
       </c>
       <c r="L46" s="1">
-        <v>1651007.77681818</v>
+        <v>31797454.522727299</v>
       </c>
       <c r="M46" s="1">
-        <v>5415357.8562845802</v>
+        <v>38450299.7925639</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="1">
-        <v>16.100000000000001</v>
+        <v>31.84</v>
       </c>
       <c r="G47" s="1">
-        <v>3025902350</v>
+        <v>1127496200</v>
       </c>
       <c r="H47" s="1">
-        <v>59516636.676700003</v>
+        <v>104576397.55599999</v>
       </c>
       <c r="I47" s="1">
-        <v>70719482.2160348</v>
+        <v>118183874.52378801</v>
       </c>
       <c r="J47" s="1">
-        <v>82418820.723665595</v>
+        <v>137861147.53916299</v>
       </c>
       <c r="K47" s="1">
-        <v>66604680.209233001</v>
+        <v>127560834.85535</v>
       </c>
       <c r="L47" s="1">
-        <v>68980903.918074206</v>
+        <v>124180519.554583</v>
       </c>
       <c r="M47" s="1">
-        <v>84339066.058767796</v>
+        <v>124322164.938122</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="1">
-        <v>147</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G48" s="1">
-        <v>53690082</v>
+        <v>3025902350</v>
       </c>
       <c r="H48" s="1">
-        <v>6258339.4933333397</v>
+        <v>59516636.676700003</v>
       </c>
       <c r="I48" s="1">
-        <v>7404246.2606060598</v>
+        <v>70719482.2160348</v>
       </c>
       <c r="J48" s="1">
-        <v>8636841.5969372895</v>
+        <v>82418820.723665595</v>
       </c>
       <c r="K48" s="1">
-        <v>6982086.8739999998</v>
+        <v>66604680.209233001</v>
       </c>
       <c r="L48" s="1">
-        <v>7417091.21060606</v>
+        <v>68980903.918074206</v>
       </c>
       <c r="M48" s="1">
-        <v>9421398.8741176408</v>
+        <v>84339066.058767796</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="1">
-        <v>35.549999999999997</v>
+        <v>147</v>
       </c>
       <c r="G49" s="1">
-        <v>765600400</v>
+        <v>53690082</v>
       </c>
       <c r="H49" s="1">
-        <v>44550194.223999999</v>
+        <v>6258339.4933333397</v>
       </c>
       <c r="I49" s="1">
-        <v>40637190.203030303</v>
+        <v>7404246.2606060598</v>
       </c>
       <c r="J49" s="1">
-        <v>47356527.306202903</v>
+        <v>8636841.5969372895</v>
       </c>
       <c r="K49" s="1">
-        <v>42833332.2733</v>
+        <v>6982086.8739999998</v>
       </c>
       <c r="L49" s="1">
-        <v>44311122.3355681</v>
+        <v>7417091.21060606</v>
       </c>
       <c r="M49" s="1">
-        <v>52595254.2658301</v>
+        <v>9421398.8741176408</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="1">
-        <v>78.459999999999994</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="G50" s="1">
-        <v>681394483</v>
+        <v>765600400</v>
       </c>
       <c r="H50" s="1">
-        <v>77875664.540000007</v>
+        <v>44550194.223999999</v>
       </c>
       <c r="I50" s="1">
-        <v>74833743.850218207</v>
+        <v>40637190.203030303</v>
       </c>
       <c r="J50" s="1">
-        <v>87189947.560488701</v>
+        <v>47356527.306202903</v>
       </c>
       <c r="K50" s="1">
-        <v>75441701.222443998</v>
+        <v>42833332.2733</v>
       </c>
       <c r="L50" s="1">
-        <v>76458845.763063699</v>
+        <v>44311122.3355681</v>
       </c>
       <c r="M50" s="1">
-        <v>89187470.845429093</v>
+        <v>52595254.2658301</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="1">
-        <v>23.49</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="G51" s="1">
-        <v>1341456065</v>
+        <v>681394483</v>
       </c>
       <c r="H51" s="1">
-        <v>50799496.072606601</v>
+        <v>77875664.540000007</v>
       </c>
       <c r="I51" s="1">
-        <v>50366548.276301503</v>
+        <v>74833743.850218207</v>
       </c>
       <c r="J51" s="1">
-        <v>58683000.949091703</v>
+        <v>87189947.560488701</v>
       </c>
       <c r="K51" s="1">
-        <v>48129517.322958998</v>
+        <v>75441701.222443998</v>
       </c>
       <c r="L51" s="1">
-        <v>49073401.304173499</v>
+        <v>76458845.763063699</v>
       </c>
       <c r="M51" s="1">
-        <v>53612171.262199603</v>
+        <v>89187470.845429093</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="1">
-        <v>29.385000000000002</v>
+        <v>23.49</v>
       </c>
       <c r="G52" s="1">
-        <v>1948252900</v>
+        <v>1341456065</v>
       </c>
       <c r="H52" s="1">
-        <v>162831730.796</v>
+        <v>50799496.072606601</v>
       </c>
       <c r="I52" s="1">
-        <v>177981689.83113599</v>
+        <v>50366548.276301503</v>
       </c>
       <c r="J52" s="1">
-        <v>207685531.526611</v>
+        <v>58683000.949091703</v>
       </c>
       <c r="K52" s="1">
-        <v>170715450.21277499</v>
+        <v>48129517.322958998</v>
       </c>
       <c r="L52" s="1">
-        <v>168472774.81662899</v>
+        <v>49073401.304173499</v>
       </c>
       <c r="M52" s="1">
-        <v>170153144.36817199</v>
+        <v>53612171.262199603</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>36</v>
@@ -4475,39 +4484,39 @@
         <v>17</v>
       </c>
       <c r="F53" s="1">
-        <v>218.9</v>
+        <v>29.385000000000002</v>
       </c>
       <c r="G53" s="1">
-        <v>188300000</v>
+        <v>1948252900</v>
       </c>
       <c r="H53" s="1">
-        <v>87659123.730000004</v>
+        <v>162831730.796</v>
       </c>
       <c r="I53" s="1">
-        <v>80560922.512878805</v>
+        <v>177981689.83113599</v>
       </c>
       <c r="J53" s="1">
-        <v>93941883.061751395</v>
+        <v>207685531.526611</v>
       </c>
       <c r="K53" s="1">
-        <v>80430486.472000003</v>
+        <v>170715450.21277499</v>
       </c>
       <c r="L53" s="1">
-        <v>82567655.923484802</v>
+        <v>168472774.81662899</v>
       </c>
       <c r="M53" s="1">
-        <v>92217904.973122507</v>
+        <v>170153144.36817199</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>36</v>
@@ -4516,39 +4525,39 @@
         <v>17</v>
       </c>
       <c r="F54" s="1">
-        <v>43</v>
+        <v>218.9</v>
       </c>
       <c r="G54" s="1">
-        <v>1200000000</v>
+        <v>188300000</v>
       </c>
       <c r="H54" s="1">
-        <v>78161804.726999998</v>
+        <v>87659123.730000004</v>
       </c>
       <c r="I54" s="1">
-        <v>61781740.444696903</v>
+        <v>80560922.512878805</v>
       </c>
       <c r="J54" s="1">
-        <v>71999492.791794896</v>
+        <v>93941883.061751395</v>
       </c>
       <c r="K54" s="1">
-        <v>63448323.867550001</v>
+        <v>80430486.472000003</v>
       </c>
       <c r="L54" s="1">
-        <v>68178803.427992404</v>
+        <v>82567655.923484802</v>
       </c>
       <c r="M54" s="1">
-        <v>87052822.919011801</v>
+        <v>92217904.973122507</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>36</v>
@@ -4557,274 +4566,274 @@
         <v>17</v>
       </c>
       <c r="F55" s="1">
-        <v>27.62</v>
+        <v>43</v>
       </c>
       <c r="G55" s="1">
-        <v>4905190400</v>
+        <v>1200000000</v>
       </c>
       <c r="H55" s="1">
-        <v>174615927.30533299</v>
+        <v>78161804.726999998</v>
       </c>
       <c r="I55" s="1">
-        <v>167579093.45007601</v>
+        <v>61781740.444696903</v>
       </c>
       <c r="J55" s="1">
-        <v>195339529.84979901</v>
+        <v>71999492.791794896</v>
       </c>
       <c r="K55" s="1">
-        <v>168756818.14930001</v>
+        <v>63448323.867550001</v>
       </c>
       <c r="L55" s="1">
-        <v>177859678.17185599</v>
+        <v>68178803.427992404</v>
       </c>
       <c r="M55" s="1">
-        <v>213139391.34502</v>
+        <v>87052822.919011801</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="1">
-        <v>71.14</v>
+        <v>27.62</v>
       </c>
       <c r="G56" s="1">
-        <v>265676388</v>
+        <v>4905190400</v>
       </c>
       <c r="H56" s="1">
-        <v>44527239.684</v>
+        <v>174615927.30533299</v>
       </c>
       <c r="I56" s="1">
-        <v>48035208.430909097</v>
+        <v>167579093.45007601</v>
       </c>
       <c r="J56" s="1">
-        <v>56032442.922977298</v>
+        <v>195339529.84979901</v>
       </c>
       <c r="K56" s="1">
-        <v>45027008.140500002</v>
+        <v>168756818.14930001</v>
       </c>
       <c r="L56" s="1">
-        <v>45048724.642424203</v>
+        <v>177859678.17185599</v>
       </c>
       <c r="M56" s="1">
-        <v>45570748.620960802</v>
+        <v>213139391.34502</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="1">
-        <v>15.5</v>
+        <v>71.14</v>
       </c>
       <c r="G57" s="1">
-        <v>2641318800</v>
+        <v>265676388</v>
       </c>
       <c r="H57" s="1">
-        <v>68178826.370000005</v>
+        <v>44527239.684</v>
       </c>
       <c r="I57" s="1">
-        <v>59440270.1259849</v>
+        <v>48035208.430909097</v>
       </c>
       <c r="J57" s="1">
-        <v>69301798.764840096</v>
+        <v>56032442.922977298</v>
       </c>
       <c r="K57" s="1">
-        <v>59693199.148474999</v>
+        <v>45027008.140500002</v>
       </c>
       <c r="L57" s="1">
-        <v>64558929.0889204</v>
+        <v>45048724.642424203</v>
       </c>
       <c r="M57" s="1">
-        <v>75787240.674851805</v>
+        <v>45570748.620960802</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="1">
-        <v>3.76</v>
+        <v>15.5</v>
       </c>
       <c r="G58" s="1">
-        <v>4184021624</v>
+        <v>2641318800</v>
       </c>
       <c r="H58" s="1">
-        <v>47531076.202966601</v>
+        <v>68178826.370000005</v>
       </c>
       <c r="I58" s="1">
-        <v>35320297.6849773</v>
+        <v>59440270.1259849</v>
       </c>
       <c r="J58" s="1">
-        <v>41149381.274617396</v>
+        <v>69301798.764840096</v>
       </c>
       <c r="K58" s="1">
-        <v>32735235.212990001</v>
+        <v>59693199.148474999</v>
       </c>
       <c r="L58" s="1">
-        <v>32116137.816340901</v>
+        <v>64558929.0889204</v>
       </c>
       <c r="M58" s="1">
-        <v>35407924.667878501</v>
+        <v>75787240.674851805</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="1">
-        <v>11.29</v>
+        <v>3.76</v>
       </c>
       <c r="G59" s="1">
-        <v>1051033116</v>
+        <v>4184021624</v>
       </c>
       <c r="H59" s="1">
-        <v>15077442.970000001</v>
+        <v>47531076.202966601</v>
       </c>
       <c r="I59" s="1">
-        <v>15758458.252045499</v>
+        <v>35320297.6849773</v>
       </c>
       <c r="J59" s="1">
-        <v>18368607.126767401</v>
+        <v>41149381.274617396</v>
       </c>
       <c r="K59" s="1">
-        <v>14137698.835899999</v>
+        <v>32735235.212990001</v>
       </c>
       <c r="L59" s="1">
-        <v>14145309.662689401</v>
+        <v>32116137.816340901</v>
       </c>
       <c r="M59" s="1">
-        <v>13247506.448421599</v>
+        <v>35407924.667878501</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F60" s="1">
-        <v>103.9</v>
+        <v>11.29</v>
       </c>
       <c r="G60" s="1">
-        <v>109072607</v>
+        <v>1051033116</v>
       </c>
       <c r="H60" s="1">
-        <v>9564452.2933333293</v>
+        <v>15077442.970000001</v>
       </c>
       <c r="I60" s="1">
-        <v>9541016.1356060598</v>
+        <v>15758458.252045499</v>
       </c>
       <c r="J60" s="1">
-        <v>11123013.0874385</v>
+        <v>18368607.126767401</v>
       </c>
       <c r="K60" s="1">
-        <v>9434928.0105000008</v>
+        <v>14137698.835899999</v>
       </c>
       <c r="L60" s="1">
-        <v>12394648.9007576</v>
+        <v>14145309.662689401</v>
       </c>
       <c r="M60" s="1">
-        <v>12195647.9060784</v>
+        <v>13247506.448421599</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F61" s="1">
-        <v>38.340000000000003</v>
+        <v>103.9</v>
       </c>
       <c r="G61" s="1">
-        <v>167335070</v>
+        <v>109072607</v>
       </c>
       <c r="H61" s="1">
-        <v>13510330.858666699</v>
+        <v>9564452.2933333293</v>
       </c>
       <c r="I61" s="1">
-        <v>13419933.2242424</v>
+        <v>9541016.1356060598</v>
       </c>
       <c r="J61" s="1">
-        <v>15635697.707981501</v>
+        <v>11123013.0874385</v>
       </c>
       <c r="K61" s="1">
-        <v>12043035.305</v>
+        <v>9434928.0105000008</v>
       </c>
       <c r="L61" s="1">
-        <v>12122686.694384599</v>
+        <v>12394648.9007576</v>
       </c>
       <c r="M61" s="1">
-        <v>12387486.915020101</v>
+        <v>12195647.9060784</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -4838,690 +4847,690 @@
         <v>205</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F62" s="1">
-        <v>30.88</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="G62" s="1">
-        <v>1058752100</v>
+        <v>167335070</v>
       </c>
       <c r="H62" s="1">
-        <v>22131242.257333301</v>
+        <v>13510330.858666699</v>
       </c>
       <c r="I62" s="1">
-        <v>20463574.739706099</v>
+        <v>13419933.2242424</v>
       </c>
       <c r="J62" s="1">
-        <v>23841929.5477065</v>
+        <v>15635697.707981501</v>
       </c>
       <c r="K62" s="1">
-        <v>20387471.697055999</v>
+        <v>12043035.305</v>
       </c>
       <c r="L62" s="1">
-        <v>22401015.245762099</v>
+        <v>12122686.694384599</v>
       </c>
       <c r="M62" s="1">
-        <v>25012837.800475299</v>
+        <v>12387486.915020101</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="1">
-        <v>8.7840000000000007</v>
+        <v>30.88</v>
       </c>
       <c r="G63" s="1">
-        <v>10166679946</v>
+        <v>1058752100</v>
       </c>
       <c r="H63" s="1">
-        <v>166540023.89559999</v>
+        <v>22131242.257333301</v>
       </c>
       <c r="I63" s="1">
-        <v>148575094.24025801</v>
+        <v>20463574.739706099</v>
       </c>
       <c r="J63" s="1">
-        <v>173125633.060821</v>
+        <v>23841929.5477065</v>
       </c>
       <c r="K63" s="1">
-        <v>149832237.82745501</v>
+        <v>20387471.697055999</v>
       </c>
       <c r="L63" s="1">
-        <v>151513143.60681701</v>
+        <v>22401015.245762099</v>
       </c>
       <c r="M63" s="1">
-        <v>178472124.09025201</v>
+        <v>25012837.800475299</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F64" s="1">
-        <v>21.62</v>
+        <v>8.7840000000000007</v>
       </c>
       <c r="G64" s="1">
-        <v>2435285011</v>
+        <v>10166679946</v>
       </c>
       <c r="H64" s="1">
-        <v>104576195.347067</v>
+        <v>166540023.89559999</v>
       </c>
       <c r="I64" s="1">
-        <v>80919661.931818202</v>
+        <v>148575094.24025801</v>
       </c>
       <c r="J64" s="1">
-        <v>94211911.034526795</v>
+        <v>173125633.060821</v>
       </c>
       <c r="K64" s="1">
-        <v>77569150.878999993</v>
+        <v>149832237.82745501</v>
       </c>
       <c r="L64" s="1">
-        <v>79798898.469393998</v>
+        <v>151513143.60681701</v>
       </c>
       <c r="M64" s="1">
-        <v>91648028.187862799</v>
+        <v>178472124.09025201</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="1">
-        <v>16.096</v>
+        <v>21.62</v>
       </c>
       <c r="G65" s="1">
-        <v>3146765114</v>
+        <v>2435285011</v>
       </c>
       <c r="H65" s="1">
-        <v>142515621.64340001</v>
+        <v>104576195.347067</v>
       </c>
       <c r="I65" s="1">
-        <v>161055156.45449999</v>
+        <v>80919661.931818202</v>
       </c>
       <c r="J65" s="1">
-        <v>187677318.683135</v>
+        <v>94211911.034526795</v>
       </c>
       <c r="K65" s="1">
-        <v>151581012.86406001</v>
+        <v>77569150.878999993</v>
       </c>
       <c r="L65" s="1">
-        <v>155468087.447649</v>
+        <v>79798898.469393998</v>
       </c>
       <c r="M65" s="1">
-        <v>166761658.73912701</v>
+        <v>91648028.187862799</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F66" s="1">
-        <v>89.1</v>
+        <v>16.096</v>
       </c>
       <c r="G66" s="1">
-        <v>410514370</v>
+        <v>3146765114</v>
       </c>
       <c r="H66" s="1">
-        <v>25312122.309999999</v>
+        <v>142515621.64340001</v>
       </c>
       <c r="I66" s="1">
-        <v>27409353.796969701</v>
+        <v>161055156.45449999</v>
       </c>
       <c r="J66" s="1">
-        <v>31962163.378448799</v>
+        <v>187677318.683135</v>
       </c>
       <c r="K66" s="1">
-        <v>26797077.719000001</v>
+        <v>151581012.86406001</v>
       </c>
       <c r="L66" s="1">
-        <v>28344772.147348501</v>
+        <v>155468087.447649</v>
       </c>
       <c r="M66" s="1">
-        <v>31702419.823537499</v>
+        <v>166761658.73912701</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F67" s="1">
-        <v>306</v>
+        <v>89.1</v>
       </c>
       <c r="G67" s="1">
-        <v>463145529</v>
+        <v>410514370</v>
       </c>
       <c r="H67" s="1">
-        <v>111826623.93328699</v>
+        <v>25312122.309999999</v>
       </c>
       <c r="I67" s="1">
-        <v>110011448.09751201</v>
+        <v>27409353.796969701</v>
       </c>
       <c r="J67" s="1">
-        <v>128240726.61354201</v>
+        <v>31962163.378448799</v>
       </c>
       <c r="K67" s="1">
-        <v>107596969.978358</v>
+        <v>26797077.719000001</v>
       </c>
       <c r="L67" s="1">
-        <v>119144642.46958899</v>
+        <v>28344772.147348501</v>
       </c>
       <c r="M67" s="1">
-        <v>136933038.349944</v>
+        <v>31702419.823537499</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F68" s="1">
-        <v>128.80000000000001</v>
+        <v>306</v>
       </c>
       <c r="G68" s="1">
-        <v>101542528</v>
+        <v>463145529</v>
       </c>
       <c r="H68" s="1">
-        <v>38258975.255000003</v>
+        <v>111826623.93328699</v>
       </c>
       <c r="I68" s="1">
-        <v>32354510.698899999</v>
+        <v>110011448.09751201</v>
       </c>
       <c r="J68" s="1">
-        <v>37697742.792461701</v>
+        <v>128240726.61354201</v>
       </c>
       <c r="K68" s="1">
-        <v>30195717.813274</v>
+        <v>107596969.978358</v>
       </c>
       <c r="L68" s="1">
-        <v>30233125.232025798</v>
+        <v>119144642.46958899</v>
       </c>
       <c r="M68" s="1">
-        <v>30339637.472068202</v>
+        <v>136933038.349944</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="1">
-        <v>337.2</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="G69" s="1">
-        <v>193923499</v>
+        <v>101542528</v>
       </c>
       <c r="H69" s="1">
-        <v>196710223.32333401</v>
+        <v>38258975.255000003</v>
       </c>
       <c r="I69" s="1">
-        <v>196771513.91818199</v>
+        <v>32354510.698899999</v>
       </c>
       <c r="J69" s="1">
-        <v>228887602.858601</v>
+        <v>37697742.792461701</v>
       </c>
       <c r="K69" s="1">
-        <v>175205141.329</v>
+        <v>30195717.813274</v>
       </c>
       <c r="L69" s="1">
-        <v>161076798.34389299</v>
+        <v>30233125.232025798</v>
       </c>
       <c r="M69" s="1">
-        <v>159191933.28095201</v>
+        <v>30339637.472068202</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F70" s="1">
-        <v>54.12</v>
+        <v>337.2</v>
       </c>
       <c r="G70" s="1">
-        <v>733755400</v>
+        <v>193923499</v>
       </c>
       <c r="H70" s="1">
-        <v>58492804.093999997</v>
+        <v>196710223.32333401</v>
       </c>
       <c r="I70" s="1">
-        <v>66943113.751287803</v>
+        <v>196771513.91818199</v>
       </c>
       <c r="J70" s="1">
-        <v>78004976.785517395</v>
+        <v>228887602.858601</v>
       </c>
       <c r="K70" s="1">
-        <v>54200476.420649998</v>
+        <v>175205141.329</v>
       </c>
       <c r="L70" s="1">
-        <v>54577960.631919697</v>
+        <v>161076798.34389299</v>
       </c>
       <c r="M70" s="1">
-        <v>51002020.729353704</v>
+        <v>159191933.28095201</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="1">
-        <v>20.61</v>
+        <v>54.12</v>
       </c>
       <c r="G71" s="1">
-        <v>611575321</v>
+        <v>733755400</v>
       </c>
       <c r="H71" s="1">
-        <v>40610685.044833302</v>
+        <v>58492804.093999997</v>
       </c>
       <c r="I71" s="1">
-        <v>30768075.203522701</v>
+        <v>66943113.751287803</v>
       </c>
       <c r="J71" s="1">
-        <v>35827355.485031597</v>
+        <v>78004976.785517395</v>
       </c>
       <c r="K71" s="1">
-        <v>29737565.6063</v>
+        <v>54200476.420649998</v>
       </c>
       <c r="L71" s="1">
-        <v>29734704.708759502</v>
+        <v>54577960.631919697</v>
       </c>
       <c r="M71" s="1">
-        <v>33440077.465277798</v>
+        <v>51002020.729353704</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="1">
-        <v>18.195</v>
+        <v>20.61</v>
       </c>
       <c r="G72" s="1">
-        <v>897264470</v>
+        <v>611575321</v>
       </c>
       <c r="H72" s="1">
-        <v>29582141.493333299</v>
+        <v>40610685.044833302</v>
       </c>
       <c r="I72" s="1">
-        <v>22992144.2504545</v>
+        <v>30768075.203522701</v>
       </c>
       <c r="J72" s="1">
-        <v>26754344.346135799</v>
+        <v>35827355.485031597</v>
       </c>
       <c r="K72" s="1">
-        <v>20988319.094500002</v>
+        <v>29737565.6063</v>
       </c>
       <c r="L72" s="1">
-        <v>20811119.825538501</v>
+        <v>29734704.708759502</v>
       </c>
       <c r="M72" s="1">
-        <v>22002573.401726902</v>
+        <v>33440077.465277798</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F73" s="1">
-        <v>46.94</v>
+        <v>18.195</v>
       </c>
       <c r="G73" s="1">
-        <v>563237300</v>
+        <v>897264470</v>
       </c>
       <c r="H73" s="1">
-        <v>36352445.630666703</v>
+        <v>29582141.493333299</v>
       </c>
       <c r="I73" s="1">
-        <v>32629837.190757599</v>
+        <v>22992144.2504545</v>
       </c>
       <c r="J73" s="1">
-        <v>38009452.814037599</v>
+        <v>26754344.346135799</v>
       </c>
       <c r="K73" s="1">
-        <v>33009553.495099999</v>
+        <v>20988319.094500002</v>
       </c>
       <c r="L73" s="1">
-        <v>33091482.436704598</v>
+        <v>20811119.825538501</v>
       </c>
       <c r="M73" s="1">
-        <v>37738159.059604697</v>
+        <v>22002573.401726902</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F74" s="1">
-        <v>17.495000000000001</v>
+        <v>46.94</v>
       </c>
       <c r="G74" s="1">
-        <v>695415645</v>
+        <v>563237300</v>
       </c>
       <c r="H74" s="1">
-        <v>23600568.408333302</v>
+        <v>36352445.630666703</v>
       </c>
       <c r="I74" s="1">
-        <v>23730208.5079167</v>
+        <v>32629837.190757599</v>
       </c>
       <c r="J74" s="1">
-        <v>27646243.243147101</v>
+        <v>38009452.814037599</v>
       </c>
       <c r="K74" s="1">
-        <v>22913628.820175</v>
+        <v>33009553.495099999</v>
       </c>
       <c r="L74" s="1">
-        <v>23230906.087499999</v>
+        <v>33091482.436704598</v>
       </c>
       <c r="M74" s="1">
-        <v>22854564.6613039</v>
+        <v>37738159.059604697</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F75" s="1">
-        <v>72.8</v>
+        <v>17.495000000000001</v>
       </c>
       <c r="G75" s="1">
-        <v>133200000</v>
+        <v>695415645</v>
       </c>
       <c r="H75" s="1">
-        <v>7485468.6366666704</v>
+        <v>23600568.408333302</v>
       </c>
       <c r="I75" s="1">
-        <v>7191750.4462121204</v>
+        <v>23730208.5079167</v>
       </c>
       <c r="J75" s="1">
-        <v>8383617.1785413204</v>
+        <v>27646243.243147101</v>
       </c>
       <c r="K75" s="1">
-        <v>6538035.5884999996</v>
+        <v>22913628.820175</v>
       </c>
       <c r="L75" s="1">
-        <v>6975185.5409090901</v>
+        <v>23230906.087499999</v>
       </c>
       <c r="M75" s="1">
-        <v>7517353.5729411803</v>
+        <v>22854564.6613039</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F76" s="1">
-        <v>57.35</v>
+        <v>72.8</v>
       </c>
       <c r="G76" s="1">
-        <v>162801670</v>
+        <v>133200000</v>
       </c>
       <c r="H76" s="1">
-        <v>18872270.7466667</v>
+        <v>7485468.6366666704</v>
       </c>
       <c r="I76" s="1">
-        <v>24199504.788257599</v>
+        <v>7191750.4462121204</v>
       </c>
       <c r="J76" s="1">
-        <v>28261011.471990298</v>
+        <v>8383617.1785413204</v>
       </c>
       <c r="K76" s="1">
-        <v>21460903.050749999</v>
+        <v>6538035.5884999996</v>
       </c>
       <c r="L76" s="1">
-        <v>21077984.202840898</v>
+        <v>6975185.5409090901</v>
       </c>
       <c r="M76" s="1">
-        <v>21197104.523419</v>
+        <v>7517353.5729411803</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="1">
-        <v>33.01</v>
+        <v>57.35</v>
       </c>
       <c r="G77" s="1">
-        <v>1549784923</v>
+        <v>162801670</v>
       </c>
       <c r="H77" s="1">
-        <v>75523745.457000002</v>
+        <v>18872270.7466667</v>
       </c>
       <c r="I77" s="1">
-        <v>74009122.535757601</v>
+        <v>24199504.788257599</v>
       </c>
       <c r="J77" s="1">
-        <v>86287613.120007694</v>
+        <v>28261011.471990298</v>
       </c>
       <c r="K77" s="1">
-        <v>73615634.569900006</v>
+        <v>21460903.050749999</v>
       </c>
       <c r="L77" s="1">
-        <v>91219974.853320599</v>
+        <v>21077984.202840898</v>
       </c>
       <c r="M77" s="1">
-        <v>108863246.977956</v>
+        <v>21197104.523419</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F78" s="1">
-        <v>0.69</v>
+        <v>33.01</v>
       </c>
       <c r="G78" s="1">
-        <v>1113335009</v>
+        <v>1549784923</v>
       </c>
       <c r="H78" s="1">
-        <v>1534881.8014533301</v>
+        <v>75523745.457000002</v>
       </c>
       <c r="I78" s="1">
-        <v>1072273.1460424201</v>
+        <v>74009122.535757601</v>
       </c>
       <c r="J78" s="1">
-        <v>1248547.37837973</v>
+        <v>86287613.120007694</v>
       </c>
       <c r="K78" s="1">
-        <v>954252.42153599998</v>
+        <v>73615634.569900006</v>
       </c>
       <c r="L78" s="1">
-        <v>929814.92569772701</v>
+        <v>91219974.853320599</v>
       </c>
       <c r="M78" s="1">
-        <v>1102409.8447704699</v>
+        <v>108863246.977956</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -5699,7 +5708,7 @@
         <v>269</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>17</v>
@@ -5986,7 +5995,7 @@
         <v>290</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>17</v>
@@ -6068,7 +6077,7 @@
         <v>296</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>17</v>
@@ -6109,34 +6118,34 @@
         <v>299</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F93" s="1">
-        <v>18.09</v>
+        <v>78.25</v>
       </c>
       <c r="G93" s="1">
-        <v>273130980</v>
+        <v>161600095</v>
       </c>
       <c r="H93" s="1">
-        <v>7439558.2886666702</v>
+        <v>23326289.014433298</v>
       </c>
       <c r="I93" s="1">
-        <v>8764587.0051515196</v>
+        <v>27954651.848604601</v>
       </c>
       <c r="J93" s="1">
-        <v>10219431.937639499</v>
+        <v>32578410.796717498</v>
       </c>
       <c r="K93" s="1">
-        <v>8518502.3461000007</v>
+        <v>27464914.078428999</v>
       </c>
       <c r="L93" s="1">
-        <v>8843306.0848461501</v>
+        <v>27834502.186459102</v>
       </c>
       <c r="M93" s="1">
-        <v>9694186.16975905</v>
+        <v>30157993.116264202</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -6150,34 +6159,34 @@
         <v>302</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F94" s="1">
-        <v>57.46</v>
+        <v>18.09</v>
       </c>
       <c r="G94" s="1">
-        <v>453187130</v>
+        <v>273130980</v>
       </c>
       <c r="H94" s="1">
-        <v>24952677.513333298</v>
+        <v>7439558.2886666702</v>
       </c>
       <c r="I94" s="1">
-        <v>28671765.237272698</v>
+        <v>8764587.0051515196</v>
       </c>
       <c r="J94" s="1">
-        <v>33426966.275331799</v>
+        <v>10219431.937639499</v>
       </c>
       <c r="K94" s="1">
-        <v>26657606.0101</v>
+        <v>8518502.3461000007</v>
       </c>
       <c r="L94" s="1">
-        <v>26147586.283538502</v>
+        <v>8843306.0848461501</v>
       </c>
       <c r="M94" s="1">
-        <v>27405118.5165863</v>
+        <v>9694186.16975905</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -6191,34 +6200,34 @@
         <v>305</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F95" s="1">
-        <v>81.75</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="G95" s="1">
-        <v>79221900</v>
+        <v>180396053</v>
       </c>
       <c r="H95" s="1">
-        <v>7107346.2166666696</v>
+        <v>34033474.891393401</v>
       </c>
       <c r="I95" s="1">
-        <v>7355238.3295454504</v>
+        <v>27975130.233648501</v>
       </c>
       <c r="J95" s="1">
-        <v>8564949.6186064109</v>
+        <v>32583250.155760601</v>
       </c>
       <c r="K95" s="1">
-        <v>6774994.3724999996</v>
+        <v>27576234.435449999</v>
       </c>
       <c r="L95" s="1">
-        <v>7699475.7207692303</v>
+        <v>27582771.624606799</v>
       </c>
       <c r="M95" s="1">
-        <v>7755584.0265060198</v>
+        <v>29569493.0857535</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -6232,34 +6241,34 @@
         <v>308</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F96" s="1">
-        <v>3.93</v>
+        <v>57.46</v>
       </c>
       <c r="G96" s="1">
-        <v>3888930422</v>
+        <v>453187130</v>
       </c>
       <c r="H96" s="1">
-        <v>32373195.695466701</v>
+        <v>24952677.513333298</v>
       </c>
       <c r="I96" s="1">
-        <v>32497206.350340899</v>
+        <v>28671765.237272698</v>
       </c>
       <c r="J96" s="1">
-        <v>37882663.331041902</v>
+        <v>33426966.275331799</v>
       </c>
       <c r="K96" s="1">
-        <v>33374075.161474999</v>
+        <v>26657606.0101</v>
       </c>
       <c r="L96" s="1">
-        <v>35087463.435541697</v>
+        <v>26147586.283538502</v>
       </c>
       <c r="M96" s="1">
-        <v>35658391.302615702</v>
+        <v>27405118.5165863</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -6273,34 +6282,34 @@
         <v>311</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F97" s="1">
-        <v>361.5</v>
+        <v>81.75</v>
       </c>
       <c r="G97" s="1">
-        <v>533783024</v>
+        <v>79221900</v>
       </c>
       <c r="H97" s="1">
-        <v>105679464.682613</v>
+        <v>7107346.2166666696</v>
       </c>
       <c r="I97" s="1">
-        <v>120144617.37831201</v>
+        <v>7355238.3295454504</v>
       </c>
       <c r="J97" s="1">
-        <v>140136487.22382599</v>
+        <v>8564949.6186064109</v>
       </c>
       <c r="K97" s="1">
-        <v>112340319.76193599</v>
+        <v>6774994.3724999996</v>
       </c>
       <c r="L97" s="1">
-        <v>115668594.987452</v>
+        <v>7699475.7207692303</v>
       </c>
       <c r="M97" s="1">
-        <v>139975623.991936</v>
+        <v>7755584.0265060198</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -6314,34 +6323,34 @@
         <v>314</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F98" s="1">
-        <v>126.85</v>
+        <v>3.93</v>
       </c>
       <c r="G98" s="1">
-        <v>262245733</v>
+        <v>3888930422</v>
       </c>
       <c r="H98" s="1">
-        <v>97086327.625039905</v>
+        <v>32373195.695466701</v>
       </c>
       <c r="I98" s="1">
-        <v>80639088.683821201</v>
+        <v>32497206.350340899</v>
       </c>
       <c r="J98" s="1">
-        <v>93970508.512403801</v>
+        <v>37882663.331041902</v>
       </c>
       <c r="K98" s="1">
-        <v>75273279.681071997</v>
+        <v>33374075.161474999</v>
       </c>
       <c r="L98" s="1">
-        <v>70383967.219751507</v>
+        <v>35087463.435541697</v>
       </c>
       <c r="M98" s="1">
-        <v>65263619.848812602</v>
+        <v>35658391.302615702</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -6355,34 +6364,34 @@
         <v>317</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1">
-        <v>46.04</v>
+        <v>361.5</v>
       </c>
       <c r="G99" s="1">
-        <v>578150395</v>
+        <v>533783024</v>
       </c>
       <c r="H99" s="1">
-        <v>154808178.62900001</v>
+        <v>105679464.682613</v>
       </c>
       <c r="I99" s="1">
-        <v>150931707.70424199</v>
+        <v>120144617.37831201</v>
       </c>
       <c r="J99" s="1">
-        <v>175977655.27555001</v>
+        <v>140136487.22382599</v>
       </c>
       <c r="K99" s="1">
-        <v>152622164.83995</v>
+        <v>112340319.76193599</v>
       </c>
       <c r="L99" s="1">
-        <v>157570240.05633599</v>
+        <v>115668594.987452</v>
       </c>
       <c r="M99" s="1">
-        <v>158062457.061766</v>
+        <v>139975623.991936</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -6396,34 +6405,34 @@
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F100" s="1">
-        <v>20.64</v>
+        <v>126.85</v>
       </c>
       <c r="G100" s="1">
-        <v>251630412</v>
+        <v>262245733</v>
       </c>
       <c r="H100" s="1">
-        <v>30997998.358333301</v>
+        <v>97086327.625039905</v>
       </c>
       <c r="I100" s="1">
-        <v>22827505.095075801</v>
+        <v>80639088.683821201</v>
       </c>
       <c r="J100" s="1">
-        <v>26604952.888617601</v>
+        <v>93970508.512403801</v>
       </c>
       <c r="K100" s="1">
-        <v>20107186.354850002</v>
+        <v>75273279.681071997</v>
       </c>
       <c r="L100" s="1">
-        <v>20600471.513167899</v>
+        <v>70383967.219751507</v>
       </c>
       <c r="M100" s="1">
-        <v>14879792.0818056</v>
+        <v>65263619.848812602</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -6437,34 +6446,34 @@
         <v>323</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F101" s="1">
-        <v>7710</v>
+        <v>46.04</v>
       </c>
       <c r="G101" s="1">
-        <v>816013</v>
+        <v>578150395</v>
       </c>
       <c r="H101" s="1">
-        <v>4505298</v>
+        <v>154808178.62900001</v>
       </c>
       <c r="I101" s="1">
-        <v>5439278.7121212101</v>
+        <v>150931707.70424199</v>
       </c>
       <c r="J101" s="1">
-        <v>6341485.3406119896</v>
+        <v>175977655.27555001</v>
       </c>
       <c r="K101" s="1">
-        <v>5776494.2000000002</v>
+        <v>152622164.83995</v>
       </c>
       <c r="L101" s="1">
-        <v>5687923.9015151504</v>
+        <v>157570240.05633599</v>
       </c>
       <c r="M101" s="1">
-        <v>6315620</v>
+        <v>158062457.061766</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -6478,34 +6487,34 @@
         <v>326</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F102" s="1">
-        <v>623</v>
+        <v>20.64</v>
       </c>
       <c r="G102" s="1">
-        <v>497686940</v>
+        <v>251630412</v>
       </c>
       <c r="H102" s="1">
-        <v>232671821.4138</v>
+        <v>30997998.358333301</v>
       </c>
       <c r="I102" s="1">
-        <v>269027301.10464698</v>
+        <v>22827505.095075801</v>
       </c>
       <c r="J102" s="1">
-        <v>313555952.450616</v>
+        <v>26604952.888617601</v>
       </c>
       <c r="K102" s="1">
-        <v>251737340.45981699</v>
+        <v>20107186.354850002</v>
       </c>
       <c r="L102" s="1">
-        <v>255572100.37997499</v>
+        <v>20600471.513167899</v>
       </c>
       <c r="M102" s="1">
-        <v>296179580.149634</v>
+        <v>14879792.0818056</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -6519,34 +6528,34 @@
         <v>329</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F103" s="1">
-        <v>57.02</v>
+        <v>7710</v>
       </c>
       <c r="G103" s="1">
-        <v>962903700</v>
+        <v>816013</v>
       </c>
       <c r="H103" s="1">
-        <v>120781586.081</v>
+        <v>4505298</v>
       </c>
       <c r="I103" s="1">
-        <v>111281305.090985</v>
+        <v>5439278.7121212101</v>
       </c>
       <c r="J103" s="1">
-        <v>129699924.29912101</v>
+        <v>6341485.3406119896</v>
       </c>
       <c r="K103" s="1">
-        <v>108855975.98317499</v>
+        <v>5776494.2000000002</v>
       </c>
       <c r="L103" s="1">
-        <v>108912429.66178</v>
+        <v>5687923.9015151504</v>
       </c>
       <c r="M103" s="1">
-        <v>136324185.154773</v>
+        <v>6315620</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -6560,34 +6569,34 @@
         <v>332</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F104" s="1">
-        <v>112.3</v>
+        <v>623</v>
       </c>
       <c r="G104" s="1">
-        <v>129242250</v>
+        <v>497686940</v>
       </c>
       <c r="H104" s="1">
-        <v>36774655.226666696</v>
+        <v>232671821.4138</v>
       </c>
       <c r="I104" s="1">
-        <v>34517666.854924202</v>
+        <v>269027301.10464698</v>
       </c>
       <c r="J104" s="1">
-        <v>40228548.298423097</v>
+        <v>313555952.450616</v>
       </c>
       <c r="K104" s="1">
-        <v>35914347.717249997</v>
+        <v>251737340.45981699</v>
       </c>
       <c r="L104" s="1">
-        <v>35465716.520265199</v>
+        <v>255572100.37997499</v>
       </c>
       <c r="M104" s="1">
-        <v>40151267.4671937</v>
+        <v>296179580.149634</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -6601,34 +6610,34 @@
         <v>335</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F105" s="1">
-        <v>13.45</v>
+        <v>57.02</v>
       </c>
       <c r="G105" s="1">
-        <v>828972400</v>
+        <v>962903700</v>
       </c>
       <c r="H105" s="1">
-        <v>15360870.936000001</v>
+        <v>120781586.081</v>
       </c>
       <c r="I105" s="1">
-        <v>16897198.876363602</v>
+        <v>111281305.090985</v>
       </c>
       <c r="J105" s="1">
-        <v>19685886.144303899</v>
+        <v>129699924.29912101</v>
       </c>
       <c r="K105" s="1">
-        <v>15415892.361500001</v>
+        <v>108855975.98317499</v>
       </c>
       <c r="L105" s="1">
-        <v>14719540.906153901</v>
+        <v>108912429.66178</v>
       </c>
       <c r="M105" s="1">
-        <v>14540008.4360241</v>
+        <v>136324185.154773</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -6642,34 +6651,34 @@
         <v>338</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F106" s="1">
-        <v>27.66</v>
+        <v>112.3</v>
       </c>
       <c r="G106" s="1">
-        <v>710514537</v>
+        <v>129242250</v>
       </c>
       <c r="H106" s="1">
-        <v>59824734.747820102</v>
+        <v>36774655.226666696</v>
       </c>
       <c r="I106" s="1">
-        <v>53278726.615402997</v>
+        <v>34517666.854924202</v>
       </c>
       <c r="J106" s="1">
-        <v>62021916.1128987</v>
+        <v>40228548.298423097</v>
       </c>
       <c r="K106" s="1">
-        <v>48230999.140515998</v>
+        <v>35914347.717249997</v>
       </c>
       <c r="L106" s="1">
-        <v>46849294.650959097</v>
+        <v>35465716.520265199</v>
       </c>
       <c r="M106" s="1">
-        <v>51737207.335516103</v>
+        <v>40151267.4671937</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -6683,34 +6692,34 @@
         <v>341</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F107" s="1">
-        <v>56.22</v>
+        <v>13.45</v>
       </c>
       <c r="G107" s="1">
-        <v>274805954</v>
+        <v>828972400</v>
       </c>
       <c r="H107" s="1">
-        <v>50778959.577333301</v>
+        <v>15360870.936000001</v>
       </c>
       <c r="I107" s="1">
-        <v>52477234.572196901</v>
+        <v>16897198.876363602</v>
       </c>
       <c r="J107" s="1">
-        <v>61166985.025174297</v>
+        <v>19685886.144303899</v>
       </c>
       <c r="K107" s="1">
-        <v>48704269.212049998</v>
+        <v>15415892.361500001</v>
       </c>
       <c r="L107" s="1">
-        <v>46942750.371832103</v>
+        <v>14719540.906153901</v>
       </c>
       <c r="M107" s="1">
-        <v>54061411.519027799</v>
+        <v>14540008.4360241</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -6724,34 +6733,34 @@
         <v>344</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F108" s="1">
-        <v>348.6</v>
+        <v>27.66</v>
       </c>
       <c r="G108" s="1">
-        <v>53824490</v>
+        <v>710514537</v>
       </c>
       <c r="H108" s="1">
-        <v>44143374.1133333</v>
+        <v>59824734.747820102</v>
       </c>
       <c r="I108" s="1">
-        <v>42760035.616666697</v>
+        <v>53278726.615402997</v>
       </c>
       <c r="J108" s="1">
-        <v>49830169.221571296</v>
+        <v>62021916.1128987</v>
       </c>
       <c r="K108" s="1">
-        <v>43049156.994499996</v>
+        <v>48230999.140515998</v>
       </c>
       <c r="L108" s="1">
-        <v>44819134.711742401</v>
+        <v>46849294.650959097</v>
       </c>
       <c r="M108" s="1">
-        <v>47259076.806521699</v>
+        <v>51737207.335516103</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -6765,34 +6774,34 @@
         <v>347</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F109" s="1">
-        <v>532.4</v>
+        <v>56.22</v>
       </c>
       <c r="G109" s="1">
-        <v>130645070</v>
+        <v>274805954</v>
       </c>
       <c r="H109" s="1">
-        <v>124943892.553333</v>
+        <v>50778959.577333301</v>
       </c>
       <c r="I109" s="1">
-        <v>126417449.87424199</v>
+        <v>52477234.572196901</v>
       </c>
       <c r="J109" s="1">
-        <v>147461314.67462799</v>
+        <v>61166985.025174297</v>
       </c>
       <c r="K109" s="1">
-        <v>125067300.40700001</v>
+        <v>48704269.212049998</v>
       </c>
       <c r="L109" s="1">
-        <v>130284135.80833299</v>
+        <v>46942750.371832103</v>
       </c>
       <c r="M109" s="1">
-        <v>142614499.850593</v>
+        <v>54061411.519027799</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -6806,34 +6815,34 @@
         <v>350</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F110" s="1">
-        <v>16.725000000000001</v>
+        <v>348.6</v>
       </c>
       <c r="G110" s="1">
-        <v>769211060</v>
+        <v>53824490</v>
       </c>
       <c r="H110" s="1">
-        <v>21349515.247333299</v>
+        <v>44143374.1133333</v>
       </c>
       <c r="I110" s="1">
-        <v>21570648.8080303</v>
+        <v>42760035.616666697</v>
       </c>
       <c r="J110" s="1">
-        <v>25132208.8937556</v>
+        <v>49830169.221571296</v>
       </c>
       <c r="K110" s="1">
-        <v>20441555.6226</v>
+        <v>43049156.994499996</v>
       </c>
       <c r="L110" s="1">
-        <v>22538713.2328462</v>
+        <v>44819134.711742401</v>
       </c>
       <c r="M110" s="1">
-        <v>24419469.960602399</v>
+        <v>47259076.806521699</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -6847,34 +6856,34 @@
         <v>353</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F111" s="1">
-        <v>60.62</v>
+        <v>532.4</v>
       </c>
       <c r="G111" s="1">
-        <v>269000000</v>
+        <v>130645070</v>
       </c>
       <c r="H111" s="1">
-        <v>27579731.541333299</v>
+        <v>124943892.553333</v>
       </c>
       <c r="I111" s="1">
-        <v>31486046.267727301</v>
+        <v>126417449.87424199</v>
       </c>
       <c r="J111" s="1">
-        <v>36729280.716433503</v>
+        <v>147461314.67462799</v>
       </c>
       <c r="K111" s="1">
-        <v>32862378.903000001</v>
+        <v>125067300.40700001</v>
       </c>
       <c r="L111" s="1">
-        <v>35065780.337575696</v>
+        <v>130284135.80833299</v>
       </c>
       <c r="M111" s="1">
-        <v>39571077.3167255</v>
+        <v>142614499.850593</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -6888,34 +6897,34 @@
         <v>356</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="1">
-        <v>5.13</v>
+        <v>16.725000000000001</v>
       </c>
       <c r="G112" s="1">
-        <v>5742239700</v>
+        <v>769211060</v>
       </c>
       <c r="H112" s="1">
-        <v>77090096.5693333</v>
+        <v>21349515.247333299</v>
       </c>
       <c r="I112" s="1">
-        <v>83697742.174999997</v>
+        <v>21570648.8080303</v>
       </c>
       <c r="J112" s="1">
-        <v>97482564.918623894</v>
+        <v>25132208.8937556</v>
       </c>
       <c r="K112" s="1">
-        <v>67323848.028799996</v>
+        <v>20441555.6226</v>
       </c>
       <c r="L112" s="1">
-        <v>60440865.205615401</v>
+        <v>22538713.2328462</v>
       </c>
       <c r="M112" s="1">
-        <v>57797345.7651807</v>
+        <v>24419469.960602399</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -6929,34 +6938,34 @@
         <v>359</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F113" s="1">
-        <v>14.69</v>
+        <v>60.62</v>
       </c>
       <c r="G113" s="1">
-        <v>3442514600</v>
+        <v>269000000</v>
       </c>
       <c r="H113" s="1">
-        <v>63414555.982666701</v>
+        <v>27579731.541333299</v>
       </c>
       <c r="I113" s="1">
-        <v>54685575.574848503</v>
+        <v>31486046.267727301</v>
       </c>
       <c r="J113" s="1">
-        <v>63718870.813999698</v>
+        <v>36729280.716433503</v>
       </c>
       <c r="K113" s="1">
-        <v>52763447.971100003</v>
+        <v>32862378.903000001</v>
       </c>
       <c r="L113" s="1">
-        <v>54290958.423692301</v>
+        <v>35065780.337575696</v>
       </c>
       <c r="M113" s="1">
-        <v>66453499.368433803</v>
+        <v>39571077.3167255</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -6970,34 +6979,34 @@
         <v>362</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F114" s="1">
-        <v>47.86</v>
+        <v>5.13</v>
       </c>
       <c r="G114" s="1">
-        <v>327272740</v>
+        <v>5742239700</v>
       </c>
       <c r="H114" s="1">
-        <v>15597631.1706667</v>
+        <v>77090096.5693333</v>
       </c>
       <c r="I114" s="1">
-        <v>15422104.2469697</v>
+        <v>83697742.174999997</v>
       </c>
       <c r="J114" s="1">
-        <v>17979998.471455801</v>
+        <v>97482564.918623894</v>
       </c>
       <c r="K114" s="1">
-        <v>14995039.578600001</v>
+        <v>67323848.028799996</v>
       </c>
       <c r="L114" s="1">
-        <v>16669788.3775758</v>
+        <v>60440865.205615401</v>
       </c>
       <c r="M114" s="1">
-        <v>18842573.0675494</v>
+        <v>57797345.7651807</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -7011,34 +7020,34 @@
         <v>365</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F115" s="1">
-        <v>13.945</v>
+        <v>14.69</v>
       </c>
       <c r="G115" s="1">
-        <v>2660056599</v>
+        <v>3442514600</v>
       </c>
       <c r="H115" s="1">
-        <v>48459845.354386702</v>
+        <v>63414555.982666701</v>
       </c>
       <c r="I115" s="1">
-        <v>56226846.004855998</v>
+        <v>54685575.574848503</v>
       </c>
       <c r="J115" s="1">
-        <v>65550218.294033103</v>
+        <v>63718870.813999698</v>
       </c>
       <c r="K115" s="1">
-        <v>59153987.216454998</v>
+        <v>52763447.971100003</v>
       </c>
       <c r="L115" s="1">
-        <v>61756594.0257046</v>
+        <v>54290958.423692301</v>
       </c>
       <c r="M115" s="1">
-        <v>75056638.7531216</v>
+        <v>66453499.368433803</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -7052,34 +7061,34 @@
         <v>368</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F116" s="1">
-        <v>3.8</v>
+        <v>47.86</v>
       </c>
       <c r="G116" s="1">
-        <v>107233804</v>
+        <v>327272740</v>
       </c>
       <c r="H116" s="1">
-        <v>483180.82724000001</v>
+        <v>15597631.1706667</v>
       </c>
       <c r="I116" s="1">
-        <v>680046.67045454495</v>
+        <v>15422104.2469697</v>
       </c>
       <c r="J116" s="1">
-        <v>794029.39491646201</v>
+        <v>17979998.471455801</v>
       </c>
       <c r="K116" s="1">
-        <v>551749.23915000004</v>
+        <v>14995039.578600001</v>
       </c>
       <c r="L116" s="1">
-        <v>503306.94108712103</v>
+        <v>16669788.3775758</v>
       </c>
       <c r="M116" s="1">
-        <v>617895.19186062994</v>
+        <v>18842573.0675494</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -7093,34 +7102,34 @@
         <v>371</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F117" s="1">
-        <v>59.95</v>
+        <v>13.945</v>
       </c>
       <c r="G117" s="1">
-        <v>109292460</v>
+        <v>2660056599</v>
       </c>
       <c r="H117" s="1">
-        <v>13465058.312666699</v>
+        <v>48459845.354386702</v>
       </c>
       <c r="I117" s="1">
-        <v>13479906.0063636</v>
+        <v>56226846.004855998</v>
       </c>
       <c r="J117" s="1">
-        <v>15704445.2192131</v>
+        <v>65550218.294033103</v>
       </c>
       <c r="K117" s="1">
-        <v>13163966.3562</v>
+        <v>59153987.216454998</v>
       </c>
       <c r="L117" s="1">
-        <v>13606497.1789231</v>
+        <v>61756594.0257046</v>
       </c>
       <c r="M117" s="1">
-        <v>12719607.939036099</v>
+        <v>75056638.7531216</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -7134,34 +7143,34 @@
         <v>374</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F118" s="1">
-        <v>81.22</v>
+        <v>59.95</v>
       </c>
       <c r="G118" s="1">
-        <v>252269195</v>
+        <v>109292460</v>
       </c>
       <c r="H118" s="1">
-        <v>45299528.785333298</v>
+        <v>13465058.312666699</v>
       </c>
       <c r="I118" s="1">
-        <v>53980023.169816703</v>
+        <v>13479906.0063636</v>
       </c>
       <c r="J118" s="1">
-        <v>62995884.734736897</v>
+        <v>15704445.2192131</v>
       </c>
       <c r="K118" s="1">
-        <v>52609602.074979</v>
+        <v>13163966.3562</v>
       </c>
       <c r="L118" s="1">
-        <v>51741142.203999199</v>
+        <v>13606497.1789231</v>
       </c>
       <c r="M118" s="1">
-        <v>58477164.856031001</v>
+        <v>12719607.939036099</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -7175,34 +7184,34 @@
         <v>377</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F119" s="1">
-        <v>23.49</v>
+        <v>81.22</v>
       </c>
       <c r="G119" s="1">
-        <v>962920132</v>
+        <v>252269195</v>
       </c>
       <c r="H119" s="1">
-        <v>32619392.986666601</v>
+        <v>45299528.785333298</v>
       </c>
       <c r="I119" s="1">
-        <v>32230025.666818202</v>
+        <v>53980023.169816703</v>
       </c>
       <c r="J119" s="1">
-        <v>37563228.149794899</v>
+        <v>62995884.734736897</v>
       </c>
       <c r="K119" s="1">
-        <v>32729478.7487</v>
+        <v>52609602.074979</v>
       </c>
       <c r="L119" s="1">
-        <v>34216113.830606103</v>
+        <v>51741142.203999199</v>
       </c>
       <c r="M119" s="1">
-        <v>39174317.974490203</v>
+        <v>58477164.856031001</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -7216,34 +7225,34 @@
         <v>380</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F120" s="1">
-        <v>20.86</v>
+        <v>23.49</v>
       </c>
       <c r="G120" s="1">
-        <v>1306110000</v>
+        <v>962920132</v>
       </c>
       <c r="H120" s="1">
-        <v>44417594.620666698</v>
+        <v>32619392.986666601</v>
       </c>
       <c r="I120" s="1">
-        <v>32700162.815340899</v>
+        <v>32230025.666818202</v>
       </c>
       <c r="J120" s="1">
-        <v>38085130.555267602</v>
+        <v>37563228.149794899</v>
       </c>
       <c r="K120" s="1">
-        <v>32311767.558075</v>
+        <v>32729478.7487</v>
       </c>
       <c r="L120" s="1">
-        <v>34852640.504408397</v>
+        <v>34216113.830606103</v>
       </c>
       <c r="M120" s="1">
-        <v>34943885.177004002</v>
+        <v>39174317.974490203</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -7257,34 +7266,34 @@
         <v>383</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F121" s="1">
-        <v>56.62</v>
+        <v>20.86</v>
       </c>
       <c r="G121" s="1">
-        <v>2378947836</v>
+        <v>1306110000</v>
       </c>
       <c r="H121" s="1">
-        <v>107177149.638</v>
+        <v>44417594.620666698</v>
       </c>
       <c r="I121" s="1">
-        <v>119234242.236591</v>
+        <v>32700162.815340899</v>
       </c>
       <c r="J121" s="1">
-        <v>139066300.627534</v>
+        <v>38085130.555267602</v>
       </c>
       <c r="K121" s="1">
-        <v>111492686.25077499</v>
+        <v>32311767.558075</v>
       </c>
       <c r="L121" s="1">
-        <v>115867344.15424199</v>
+        <v>34852640.504408397</v>
       </c>
       <c r="M121" s="1">
-        <v>131511670.27002899</v>
+        <v>34943885.177004002</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -7298,34 +7307,34 @@
         <v>386</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F122" s="1">
-        <v>80.8</v>
+        <v>56.62</v>
       </c>
       <c r="G122" s="1">
-        <v>296401348</v>
+        <v>2378947836</v>
       </c>
       <c r="H122" s="1">
-        <v>95228454.573333398</v>
+        <v>107177149.638</v>
       </c>
       <c r="I122" s="1">
-        <v>88246995.895454496</v>
+        <v>119234242.236591</v>
       </c>
       <c r="J122" s="1">
-        <v>102784721.398377</v>
+        <v>139066300.627534</v>
       </c>
       <c r="K122" s="1">
-        <v>82630527.644299999</v>
+        <v>111492686.25077499</v>
       </c>
       <c r="L122" s="1">
-        <v>76796458.360076398</v>
+        <v>115867344.15424199</v>
       </c>
       <c r="M122" s="1">
-        <v>78425732.163829401</v>
+        <v>131511670.27002899</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -7339,34 +7348,34 @@
         <v>389</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F123" s="1">
-        <v>84.1</v>
+        <v>80.8</v>
       </c>
       <c r="G123" s="1">
-        <v>254311860</v>
+        <v>296401348</v>
       </c>
       <c r="H123" s="1">
-        <v>43991494.3490467</v>
+        <v>95228454.573333398</v>
       </c>
       <c r="I123" s="1">
-        <v>44678395.794343904</v>
+        <v>88246995.895454496</v>
       </c>
       <c r="J123" s="1">
-        <v>52070196.316010803</v>
+        <v>102784721.398377</v>
       </c>
       <c r="K123" s="1">
-        <v>50153992.784267001</v>
+        <v>82630527.644299999</v>
       </c>
       <c r="L123" s="1">
-        <v>52016744.5958841</v>
+        <v>76796458.360076398</v>
       </c>
       <c r="M123" s="1">
-        <v>53786231.729810603</v>
+        <v>78425732.163829401</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -7380,34 +7389,34 @@
         <v>392</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F124" s="1">
-        <v>40.380000000000003</v>
+        <v>84.1</v>
       </c>
       <c r="G124" s="1">
-        <v>216841000</v>
+        <v>254311860</v>
       </c>
       <c r="H124" s="1">
-        <v>19522887.445333298</v>
+        <v>43991494.3490467</v>
       </c>
       <c r="I124" s="1">
-        <v>18033050.166439399</v>
+        <v>44678395.794343904</v>
       </c>
       <c r="J124" s="1">
-        <v>21011196.583819602</v>
+        <v>52070196.316010803</v>
       </c>
       <c r="K124" s="1">
-        <v>17652069.930799998</v>
+        <v>50153992.784267001</v>
       </c>
       <c r="L124" s="1">
-        <v>18531135.955606099</v>
+        <v>52016744.5958841</v>
       </c>
       <c r="M124" s="1">
-        <v>20834691.048992101</v>
+        <v>53786231.729810603</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -7421,34 +7430,34 @@
         <v>395</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F125" s="1">
-        <v>33</v>
+        <v>40.380000000000003</v>
       </c>
       <c r="G125" s="1">
-        <v>328939640</v>
+        <v>216841000</v>
       </c>
       <c r="H125" s="1">
-        <v>11313381.473333299</v>
+        <v>19522887.445333298</v>
       </c>
       <c r="I125" s="1">
-        <v>9685565.1972727291</v>
+        <v>18033050.166439399</v>
       </c>
       <c r="J125" s="1">
-        <v>11284589.6398986</v>
+        <v>21011196.583819602</v>
       </c>
       <c r="K125" s="1">
-        <v>9893756.8224000093</v>
+        <v>17652069.930799998</v>
       </c>
       <c r="L125" s="1">
-        <v>9036298.2121212091</v>
+        <v>18531135.955606099</v>
       </c>
       <c r="M125" s="1">
-        <v>9669850.2623320203</v>
+        <v>20834691.048992101</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -7462,34 +7471,34 @@
         <v>398</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F126" s="1">
-        <v>50.75</v>
+        <v>33</v>
       </c>
       <c r="G126" s="1">
-        <v>209125156</v>
+        <v>328939640</v>
       </c>
       <c r="H126" s="1">
-        <v>14483043.484333299</v>
+        <v>11313381.473333299</v>
       </c>
       <c r="I126" s="1">
-        <v>12983731.630151501</v>
+        <v>9685565.1972727291</v>
       </c>
       <c r="J126" s="1">
-        <v>15126664.1112363</v>
+        <v>11284589.6398986</v>
       </c>
       <c r="K126" s="1">
-        <v>12670616.46785</v>
+        <v>9893756.8224000093</v>
       </c>
       <c r="L126" s="1">
-        <v>13201030.415534399</v>
+        <v>9036298.2121212091</v>
       </c>
       <c r="M126" s="1">
-        <v>16587632.777400799</v>
+        <v>9669850.2623320203</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -7503,34 +7512,34 @@
         <v>401</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F127" s="1">
-        <v>35.28</v>
+        <v>50.75</v>
       </c>
       <c r="G127" s="1">
-        <v>1907070957</v>
+        <v>209125156</v>
       </c>
       <c r="H127" s="1">
-        <v>38042578.714666702</v>
+        <v>14483043.484333299</v>
       </c>
       <c r="I127" s="1">
-        <v>32638215.1919697</v>
+        <v>12983731.630151501</v>
       </c>
       <c r="J127" s="1">
-        <v>38012064.798709601</v>
+        <v>15126664.1112363</v>
       </c>
       <c r="K127" s="1">
-        <v>31979316.750999998</v>
+        <v>12670616.46785</v>
       </c>
       <c r="L127" s="1">
-        <v>29814886.367424201</v>
+        <v>13201030.415534399</v>
       </c>
       <c r="M127" s="1">
-        <v>35151618.017999999</v>
+        <v>16587632.777400799</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -7544,34 +7553,34 @@
         <v>404</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F128" s="1">
-        <v>15.7</v>
+        <v>35.28</v>
       </c>
       <c r="G128" s="1">
-        <v>1128372300</v>
+        <v>1907070957</v>
       </c>
       <c r="H128" s="1">
-        <v>58728985.977366701</v>
+        <v>38042578.714666702</v>
       </c>
       <c r="I128" s="1">
-        <v>56722036.635921203</v>
+        <v>32638215.1919697</v>
       </c>
       <c r="J128" s="1">
-        <v>66115113.262213998</v>
+        <v>38012064.798709601</v>
       </c>
       <c r="K128" s="1">
-        <v>58111880.668295003</v>
+        <v>31979316.750999998</v>
       </c>
       <c r="L128" s="1">
-        <v>63147040.436012097</v>
+        <v>29814886.367424201</v>
       </c>
       <c r="M128" s="1">
-        <v>61525438.021741197</v>
+        <v>35151618.017999999</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -7585,34 +7594,34 @@
         <v>407</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F129" s="1">
-        <v>1519.5</v>
+        <v>15.7</v>
       </c>
       <c r="G129" s="1">
-        <v>46002533</v>
+        <v>1128372300</v>
       </c>
       <c r="H129" s="1">
-        <v>428647618.11666697</v>
+        <v>58728985.977366701</v>
       </c>
       <c r="I129" s="1">
-        <v>395799948.12121201</v>
+        <v>56722036.635921203</v>
       </c>
       <c r="J129" s="1">
-        <v>461550881.07191098</v>
+        <v>66115113.262213998</v>
       </c>
       <c r="K129" s="1">
-        <v>406969931.77499998</v>
+        <v>58111880.668295003</v>
       </c>
       <c r="L129" s="1">
-        <v>450486791.65151501</v>
+        <v>63147040.436012097</v>
       </c>
       <c r="M129" s="1">
-        <v>441109219.53063202</v>
+        <v>61525438.021741197</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -7632,28 +7641,28 @@
         <v>17</v>
       </c>
       <c r="F130" s="1">
-        <v>44.04</v>
+        <v>1519.5</v>
       </c>
       <c r="G130" s="1">
-        <v>743841200</v>
+        <v>46002533</v>
       </c>
       <c r="H130" s="1">
-        <v>95247136.475999996</v>
+        <v>428647618.11666697</v>
       </c>
       <c r="I130" s="1">
-        <v>71529820.676515102</v>
+        <v>395799948.12121201</v>
       </c>
       <c r="J130" s="1">
-        <v>83313798.456460893</v>
+        <v>461550881.07191098</v>
       </c>
       <c r="K130" s="1">
-        <v>66190049.507799998</v>
+        <v>406969931.77499998</v>
       </c>
       <c r="L130" s="1">
-        <v>68392421.3998864</v>
+        <v>450486791.65151501</v>
       </c>
       <c r="M130" s="1">
-        <v>77436450.368181795</v>
+        <v>441109219.53063202</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -7667,34 +7676,34 @@
         <v>413</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F131" s="1">
-        <v>289.39999999999998</v>
+        <v>44.04</v>
       </c>
       <c r="G131" s="1">
-        <v>423632587</v>
+        <v>743841200</v>
       </c>
       <c r="H131" s="1">
-        <v>122167439.483787</v>
+        <v>95247136.475999996</v>
       </c>
       <c r="I131" s="1">
-        <v>133887965.56734499</v>
+        <v>71529820.676515102</v>
       </c>
       <c r="J131" s="1">
-        <v>156120652.26238501</v>
+        <v>83313798.456460893</v>
       </c>
       <c r="K131" s="1">
-        <v>131784930.993448</v>
+        <v>66190049.507799998</v>
       </c>
       <c r="L131" s="1">
-        <v>133110218.095415</v>
+        <v>68392421.3998864</v>
       </c>
       <c r="M131" s="1">
-        <v>149366068.56733301</v>
+        <v>77436450.368181795</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -7714,28 +7723,28 @@
         <v>17</v>
       </c>
       <c r="F132" s="1">
-        <v>81.3</v>
+        <v>26.54</v>
       </c>
       <c r="G132" s="1">
-        <v>499067417</v>
+        <v>1052132848</v>
       </c>
       <c r="H132" s="1">
-        <v>82994862.638079897</v>
+        <v>40648881.130053297</v>
       </c>
       <c r="I132" s="1">
-        <v>90561594.383093998</v>
+        <v>45869902.577095501</v>
       </c>
       <c r="J132" s="1">
-        <v>105516015.84645601</v>
+        <v>53505816.884655297</v>
       </c>
       <c r="K132" s="1">
-        <v>87159863.752391994</v>
+        <v>42718725.341025002</v>
       </c>
       <c r="L132" s="1">
-        <v>86660199.673592404</v>
+        <v>57538913.375477999</v>
       </c>
       <c r="M132" s="1">
-        <v>98532482.2670753</v>
+        <v>51215041.609991297</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -7749,34 +7758,34 @@
         <v>419</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F133" s="1">
-        <v>9.9540000000000006</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="G133" s="1">
-        <v>2669754000</v>
+        <v>423632587</v>
       </c>
       <c r="H133" s="1">
-        <v>30247059.484666701</v>
+        <v>122167439.483787</v>
       </c>
       <c r="I133" s="1">
-        <v>27913699.4480303</v>
+        <v>133887965.56734499</v>
       </c>
       <c r="J133" s="1">
-        <v>32527837.379808702</v>
+        <v>156120652.26238501</v>
       </c>
       <c r="K133" s="1">
-        <v>27315858.8838</v>
+        <v>131784930.993448</v>
       </c>
       <c r="L133" s="1">
-        <v>27726956.0843077</v>
+        <v>133110218.095415</v>
       </c>
       <c r="M133" s="1">
-        <v>29063627.203413598</v>
+        <v>149366068.56733301</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -7790,34 +7799,34 @@
         <v>422</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F134" s="1">
-        <v>86.32</v>
+        <v>81.3</v>
       </c>
       <c r="G134" s="1">
-        <v>1227468973</v>
+        <v>499067417</v>
       </c>
       <c r="H134" s="1">
-        <v>147147863.87253299</v>
+        <v>82994862.638079897</v>
       </c>
       <c r="I134" s="1">
-        <v>162557819.54956099</v>
+        <v>90561594.383093998</v>
       </c>
       <c r="J134" s="1">
-        <v>189528580.930825</v>
+        <v>105516015.84645601</v>
       </c>
       <c r="K134" s="1">
-        <v>155693899.83570999</v>
+        <v>87159863.752391994</v>
       </c>
       <c r="L134" s="1">
-        <v>161115065.88894701</v>
+        <v>86660199.673592404</v>
       </c>
       <c r="M134" s="1">
-        <v>178130166.87086701</v>
+        <v>98532482.2670753</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -7831,34 +7840,34 @@
         <v>425</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F135" s="1">
-        <v>205</v>
+        <v>9.9540000000000006</v>
       </c>
       <c r="G135" s="1">
-        <v>1228504300</v>
+        <v>2669754000</v>
       </c>
       <c r="H135" s="1">
-        <v>268025642.47166699</v>
+        <v>30247059.484666701</v>
       </c>
       <c r="I135" s="1">
-        <v>322309689.85303003</v>
+        <v>27913699.4480303</v>
       </c>
       <c r="J135" s="1">
-        <v>376029939.132653</v>
+        <v>32527837.379808702</v>
       </c>
       <c r="K135" s="1">
-        <v>325568946.30524999</v>
+        <v>27315858.8838</v>
       </c>
       <c r="L135" s="1">
-        <v>348416609.12954497</v>
+        <v>27726956.0843077</v>
       </c>
       <c r="M135" s="1">
-        <v>395853899.51620603</v>
+        <v>29063627.203413598</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -7872,34 +7881,34 @@
         <v>428</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F136" s="1">
-        <v>222.3</v>
+        <v>86.32</v>
       </c>
       <c r="G136" s="1">
-        <v>577122512</v>
+        <v>1227468973</v>
       </c>
       <c r="H136" s="1">
-        <v>207404730.509267</v>
+        <v>147147863.87253299</v>
       </c>
       <c r="I136" s="1">
-        <v>200335742.54664001</v>
+        <v>162557819.54956099</v>
       </c>
       <c r="J136" s="1">
-        <v>233582043.159466</v>
+        <v>189528580.930825</v>
       </c>
       <c r="K136" s="1">
-        <v>200348532.41978201</v>
+        <v>155693899.83570999</v>
       </c>
       <c r="L136" s="1">
-        <v>199844949.36271399</v>
+        <v>161115065.88894701</v>
       </c>
       <c r="M136" s="1">
-        <v>225947074.68548301</v>
+        <v>178130166.87086701</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -7913,34 +7922,34 @@
         <v>431</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F137" s="1">
-        <v>31.774999999999999</v>
+        <v>205</v>
       </c>
       <c r="G137" s="1">
-        <v>5977723229</v>
+        <v>1228504300</v>
       </c>
       <c r="H137" s="1">
-        <v>169329266.650166</v>
+        <v>268025642.47166699</v>
       </c>
       <c r="I137" s="1">
-        <v>158275615.95306799</v>
+        <v>322309689.85303003</v>
       </c>
       <c r="J137" s="1">
-        <v>184421550.05613601</v>
+        <v>376029939.132653</v>
       </c>
       <c r="K137" s="1">
-        <v>149490466.630375</v>
+        <v>325568946.30524999</v>
       </c>
       <c r="L137" s="1">
-        <v>149643206.46572</v>
+        <v>348416609.12954497</v>
       </c>
       <c r="M137" s="1">
-        <v>174086225.613637</v>
+        <v>395853899.51620603</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -7954,34 +7963,34 @@
         <v>434</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F138" s="1">
-        <v>219.15</v>
+        <v>222.3</v>
       </c>
       <c r="G138" s="1">
-        <v>800000000</v>
+        <v>577122512</v>
       </c>
       <c r="H138" s="1">
-        <v>268313966.54666701</v>
+        <v>207404730.509267</v>
       </c>
       <c r="I138" s="1">
-        <v>213773879.309091</v>
+        <v>200335742.54664001</v>
       </c>
       <c r="J138" s="1">
-        <v>249155427.71931601</v>
+        <v>233582043.159466</v>
       </c>
       <c r="K138" s="1">
-        <v>210631163.00424999</v>
+        <v>200348532.41978201</v>
       </c>
       <c r="L138" s="1">
-        <v>218932841.02083299</v>
+        <v>199844949.36271399</v>
       </c>
       <c r="M138" s="1">
-        <v>264848633.28389299</v>
+        <v>225947074.68548301</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -7995,34 +8004,34 @@
         <v>437</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F139" s="1">
-        <v>100.8</v>
+        <v>31.774999999999999</v>
       </c>
       <c r="G139" s="1">
-        <v>861104900</v>
+        <v>5977723229</v>
       </c>
       <c r="H139" s="1">
-        <v>272690777.11666697</v>
+        <v>169329266.650166</v>
       </c>
       <c r="I139" s="1">
-        <v>232526896.06818199</v>
+        <v>158275615.95306799</v>
       </c>
       <c r="J139" s="1">
-        <v>271067388.24797499</v>
+        <v>184421550.05613601</v>
       </c>
       <c r="K139" s="1">
-        <v>213577981.57269999</v>
+        <v>149490466.630375</v>
       </c>
       <c r="L139" s="1">
-        <v>210262953.379848</v>
+        <v>149643206.46572</v>
       </c>
       <c r="M139" s="1">
-        <v>212036144.72002</v>
+        <v>174086225.613637</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -8042,28 +8051,28 @@
         <v>17</v>
       </c>
       <c r="F140" s="1">
-        <v>41.77</v>
+        <v>219.15</v>
       </c>
       <c r="G140" s="1">
-        <v>1128000000</v>
+        <v>800000000</v>
       </c>
       <c r="H140" s="1">
-        <v>64344610.32</v>
+        <v>268313966.54666701</v>
       </c>
       <c r="I140" s="1">
-        <v>40522478.966515198</v>
+        <v>213773879.309091</v>
       </c>
       <c r="J140" s="1">
-        <v>47164247.441929802</v>
+        <v>249155427.71931601</v>
       </c>
       <c r="K140" s="1">
-        <v>39621447.7227</v>
+        <v>210631163.00424999</v>
       </c>
       <c r="L140" s="1">
-        <v>40603151.479583301</v>
+        <v>218932841.02083299</v>
       </c>
       <c r="M140" s="1">
-        <v>42332557.685039498</v>
+        <v>264848633.28389299</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -8077,34 +8086,34 @@
         <v>443</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1">
-        <v>5.7220000000000004</v>
+        <v>100.8</v>
       </c>
       <c r="G141" s="1">
-        <v>3360857809</v>
+        <v>861104900</v>
       </c>
       <c r="H141" s="1">
-        <v>31908615.6106667</v>
+        <v>272690777.11666697</v>
       </c>
       <c r="I141" s="1">
-        <v>28391556.612893999</v>
+        <v>232526896.06818199</v>
       </c>
       <c r="J141" s="1">
-        <v>33079949.500856601</v>
+        <v>271067388.24797499</v>
       </c>
       <c r="K141" s="1">
-        <v>26729653.414209999</v>
+        <v>213577981.57269999</v>
       </c>
       <c r="L141" s="1">
-        <v>29086309.5383511</v>
+        <v>210262953.379848</v>
       </c>
       <c r="M141" s="1">
-        <v>33964139.3940873</v>
+        <v>212036144.72002</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -8118,34 +8127,34 @@
         <v>446</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F142" s="1">
-        <v>56.54</v>
+        <v>41.77</v>
       </c>
       <c r="G142" s="1">
-        <v>766894786</v>
+        <v>1128000000</v>
       </c>
       <c r="H142" s="1">
-        <v>106274498.25399999</v>
+        <v>64344610.32</v>
       </c>
       <c r="I142" s="1">
-        <v>120101190.28756499</v>
+        <v>40522478.966515198</v>
       </c>
       <c r="J142" s="1">
-        <v>139982609.69790301</v>
+        <v>47164247.441929802</v>
       </c>
       <c r="K142" s="1">
-        <v>112619549.641993</v>
+        <v>39621447.7227</v>
       </c>
       <c r="L142" s="1">
-        <v>110451050.100033</v>
+        <v>40603151.479583301</v>
       </c>
       <c r="M142" s="1">
-        <v>116670932.84463499</v>
+        <v>42332557.685039498</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -8159,34 +8168,34 @@
         <v>449</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F143" s="1">
-        <v>239.4</v>
+        <v>5.7220000000000004</v>
       </c>
       <c r="G143" s="1">
-        <v>36696428</v>
+        <v>3360857809</v>
       </c>
       <c r="H143" s="1">
-        <v>5008298.1533333296</v>
+        <v>31908615.6106667</v>
       </c>
       <c r="I143" s="1">
-        <v>6959841.2666666601</v>
+        <v>28391556.612893999</v>
       </c>
       <c r="J143" s="1">
-        <v>8116989.2840193398</v>
+        <v>33079949.500856601</v>
       </c>
       <c r="K143" s="1">
-        <v>6513028.9910000004</v>
+        <v>26729653.414209999</v>
       </c>
       <c r="L143" s="1">
-        <v>7362866.2477272702</v>
+        <v>29086309.5383511</v>
       </c>
       <c r="M143" s="1">
-        <v>6412336.5356862703</v>
+        <v>33964139.3940873</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -8200,34 +8209,34 @@
         <v>452</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F144" s="1">
-        <v>8.4529999999999994</v>
+        <v>56.54</v>
       </c>
       <c r="G144" s="1">
-        <v>2896073567</v>
+        <v>766894786</v>
       </c>
       <c r="H144" s="1">
-        <v>178513768.01339999</v>
+        <v>106274498.25399999</v>
       </c>
       <c r="I144" s="1">
-        <v>234617162.41391701</v>
+        <v>120101190.28756499</v>
       </c>
       <c r="J144" s="1">
-        <v>273553778.58005297</v>
+        <v>139982609.69790301</v>
       </c>
       <c r="K144" s="1">
-        <v>221281151.13585499</v>
+        <v>112619549.641993</v>
       </c>
       <c r="L144" s="1">
-        <v>213967400.78360301</v>
+        <v>110451050.100033</v>
       </c>
       <c r="M144" s="1">
-        <v>219821756.141139</v>
+        <v>116670932.84463499</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -8241,34 +8250,34 @@
         <v>455</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F145" s="1">
-        <v>18.809999999999999</v>
+        <v>239.4</v>
       </c>
       <c r="G145" s="1">
-        <v>911281920</v>
+        <v>36696428</v>
       </c>
       <c r="H145" s="1">
-        <v>50209176.565833397</v>
+        <v>5008298.1533333296</v>
       </c>
       <c r="I145" s="1">
-        <v>55956716.336646996</v>
+        <v>6959841.2666666601</v>
       </c>
       <c r="J145" s="1">
-        <v>65220854.741007604</v>
+        <v>8116989.2840193398</v>
       </c>
       <c r="K145" s="1">
-        <v>59355774.194086999</v>
+        <v>6513028.9910000004</v>
       </c>
       <c r="L145" s="1">
-        <v>59554164.741278</v>
+        <v>7362866.2477272702</v>
       </c>
       <c r="M145" s="1">
-        <v>64778778.149163499</v>
+        <v>6412336.5356862703</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -8282,34 +8291,34 @@
         <v>458</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F146" s="1">
-        <v>9.6539999999999999</v>
+        <v>8.4529999999999994</v>
       </c>
       <c r="G146" s="1">
-        <v>613077400</v>
+        <v>2896073567</v>
       </c>
       <c r="H146" s="1">
-        <v>17488415.489333302</v>
+        <v>178513768.01339999</v>
       </c>
       <c r="I146" s="1">
-        <v>16076122.1674242</v>
+        <v>234617162.41391701</v>
       </c>
       <c r="J146" s="1">
-        <v>18741468.933080599</v>
+        <v>273553778.58005297</v>
       </c>
       <c r="K146" s="1">
-        <v>16458522.8967</v>
+        <v>221281151.13585499</v>
       </c>
       <c r="L146" s="1">
-        <v>17520138.881230801</v>
+        <v>213967400.78360301</v>
       </c>
       <c r="M146" s="1">
-        <v>18457670.523052201</v>
+        <v>219821756.141139</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -8323,34 +8332,34 @@
         <v>461</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F147" s="1">
-        <v>68.540000000000006</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="G147" s="1">
-        <v>103921273</v>
+        <v>911281920</v>
       </c>
       <c r="H147" s="1">
-        <v>7641726.1886666697</v>
+        <v>50209176.565833397</v>
       </c>
       <c r="I147" s="1">
-        <v>8926871.3128787894</v>
+        <v>55956716.336646996</v>
       </c>
       <c r="J147" s="1">
-        <v>10417287.665442299</v>
+        <v>65220854.741007604</v>
       </c>
       <c r="K147" s="1">
-        <v>9139068.8191</v>
+        <v>59355774.194086999</v>
       </c>
       <c r="L147" s="1">
-        <v>9226669.2762121297</v>
+        <v>59554164.741278</v>
       </c>
       <c r="M147" s="1">
-        <v>10060802.3494706</v>
+        <v>64778778.149163499</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -8364,34 +8373,34 @@
         <v>464</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F148" s="1">
-        <v>70.84</v>
+        <v>9.6539999999999999</v>
       </c>
       <c r="G148" s="1">
-        <v>139772050</v>
+        <v>613077400</v>
       </c>
       <c r="H148" s="1">
-        <v>25714003.912</v>
+        <v>17488415.489333302</v>
       </c>
       <c r="I148" s="1">
-        <v>31672296.056060601</v>
+        <v>16076122.1674242</v>
       </c>
       <c r="J148" s="1">
-        <v>36930000.690362602</v>
+        <v>18741468.933080599</v>
       </c>
       <c r="K148" s="1">
-        <v>30584407.894699998</v>
+        <v>16458522.8967</v>
       </c>
       <c r="L148" s="1">
-        <v>30797189.517878801</v>
+        <v>17520138.881230801</v>
       </c>
       <c r="M148" s="1">
-        <v>32404363.147035599</v>
+        <v>18457670.523052201</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -8405,34 +8414,34 @@
         <v>467</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F149" s="1">
-        <v>0.48670000000000002</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="G149" s="1">
-        <v>15329466496</v>
+        <v>103921273</v>
       </c>
       <c r="H149" s="1">
-        <v>89149533.706523195</v>
+        <v>7641726.1886666697</v>
       </c>
       <c r="I149" s="1">
-        <v>85386216.692768201</v>
+        <v>8926871.3128787894</v>
       </c>
       <c r="J149" s="1">
-        <v>99442220.578639597</v>
+        <v>10417287.665442299</v>
       </c>
       <c r="K149" s="1">
-        <v>74143260.029286996</v>
+        <v>9139068.8191</v>
       </c>
       <c r="L149" s="1">
-        <v>74288722.579064101</v>
+        <v>9226669.2762121297</v>
       </c>
       <c r="M149" s="1">
-        <v>79884425.773120403</v>
+        <v>10060802.3494706</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -8446,34 +8455,34 @@
         <v>470</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F150" s="1">
-        <v>3.6739999999999999</v>
+        <v>70.84</v>
       </c>
       <c r="G150" s="1">
-        <v>5670161600</v>
+        <v>139772050</v>
       </c>
       <c r="H150" s="1">
-        <v>74422798.889666602</v>
+        <v>25714003.912</v>
       </c>
       <c r="I150" s="1">
-        <v>43947815.967125803</v>
+        <v>31672296.056060601</v>
       </c>
       <c r="J150" s="1">
-        <v>51083976.447846003</v>
+        <v>36930000.690362602</v>
       </c>
       <c r="K150" s="1">
-        <v>39811048.662450999</v>
+        <v>30584407.894699998</v>
       </c>
       <c r="L150" s="1">
-        <v>44619545.7789886</v>
+        <v>30797189.517878801</v>
       </c>
       <c r="M150" s="1">
-        <v>48287553.194833398</v>
+        <v>32404363.147035599</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -8493,28 +8502,28 @@
         <v>17</v>
       </c>
       <c r="F151" s="1">
-        <v>17.175000000000001</v>
+        <v>0.48670000000000002</v>
       </c>
       <c r="G151" s="1">
-        <v>1071994930</v>
+        <v>15329466496</v>
       </c>
       <c r="H151" s="1">
-        <v>28335291.907833301</v>
+        <v>89149533.706523195</v>
       </c>
       <c r="I151" s="1">
-        <v>30481411.415833302</v>
+        <v>85386216.692768201</v>
       </c>
       <c r="J151" s="1">
-        <v>35524318.817839101</v>
+        <v>99442220.578639597</v>
       </c>
       <c r="K151" s="1">
-        <v>28743977.722424999</v>
+        <v>74143260.029286996</v>
       </c>
       <c r="L151" s="1">
-        <v>31805865.971603099</v>
+        <v>74288722.579064101</v>
       </c>
       <c r="M151" s="1">
-        <v>36836182.3769444</v>
+        <v>79884425.773120403</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -8528,34 +8537,34 @@
         <v>476</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F152" s="1">
-        <v>9.1760000000000002</v>
+        <v>3.6739999999999999</v>
       </c>
       <c r="G152" s="1">
-        <v>2009992000</v>
+        <v>5670161600</v>
       </c>
       <c r="H152" s="1">
-        <v>31217390.522999998</v>
+        <v>74422798.889666602</v>
       </c>
       <c r="I152" s="1">
-        <v>29841574.285136402</v>
+        <v>43947815.967125803</v>
       </c>
       <c r="J152" s="1">
-        <v>34776647.883451797</v>
+        <v>51083976.447846003</v>
       </c>
       <c r="K152" s="1">
-        <v>28453589.722240001</v>
+        <v>39811048.662450999</v>
       </c>
       <c r="L152" s="1">
-        <v>29523792.740114499</v>
+        <v>44619545.7789886</v>
       </c>
       <c r="M152" s="1">
-        <v>33349787.930555601</v>
+        <v>48287553.194833398</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -8569,34 +8578,34 @@
         <v>479</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F153" s="1">
-        <v>226.9</v>
+        <v>17.175000000000001</v>
       </c>
       <c r="G153" s="1">
-        <v>205941913</v>
+        <v>1071994930</v>
       </c>
       <c r="H153" s="1">
-        <v>55917788.865000099</v>
+        <v>28335291.907833301</v>
       </c>
       <c r="I153" s="1">
-        <v>62307304.815780297</v>
+        <v>30481411.415833302</v>
       </c>
       <c r="J153" s="1">
-        <v>72690523.382163197</v>
+        <v>35524318.817839101</v>
       </c>
       <c r="K153" s="1">
-        <v>59951230.420415103</v>
+        <v>28743977.722424999</v>
       </c>
       <c r="L153" s="1">
-        <v>64935701.041981198</v>
+        <v>31805865.971603099</v>
       </c>
       <c r="M153" s="1">
-        <v>69087379.125162795</v>
+        <v>36836182.3769444</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8610,34 +8619,34 @@
         <v>482</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F154" s="1">
-        <v>55.97</v>
+        <v>9.1760000000000002</v>
       </c>
       <c r="G154" s="1">
-        <v>2206585543</v>
+        <v>2009992000</v>
       </c>
       <c r="H154" s="1">
-        <v>183714280.666767</v>
+        <v>31217390.522999998</v>
       </c>
       <c r="I154" s="1">
-        <v>204092811.375662</v>
+        <v>29841574.285136402</v>
       </c>
       <c r="J154" s="1">
-        <v>238066227.053754</v>
+        <v>34776647.883451797</v>
       </c>
       <c r="K154" s="1">
-        <v>192680641.18713701</v>
+        <v>28453589.722240001</v>
       </c>
       <c r="L154" s="1">
-        <v>212683881.01150501</v>
+        <v>29523792.740114499</v>
       </c>
       <c r="M154" s="1">
-        <v>237626570.41657299</v>
+        <v>33349787.930555601</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -8651,34 +8660,34 @@
         <v>485</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F155" s="1">
-        <v>201</v>
+        <v>226.9</v>
       </c>
       <c r="G155" s="1">
-        <v>44512598</v>
+        <v>205941913</v>
       </c>
       <c r="H155" s="1">
-        <v>19188894.789999999</v>
+        <v>55917788.865000099</v>
       </c>
       <c r="I155" s="1">
-        <v>11840647.6</v>
+        <v>62307304.815780297</v>
       </c>
       <c r="J155" s="1">
-        <v>13748167.7079682</v>
+        <v>72690523.382163197</v>
       </c>
       <c r="K155" s="1">
-        <v>8634267.4279999994</v>
+        <v>59951230.420415103</v>
       </c>
       <c r="L155" s="1">
-        <v>6959385.5962121198</v>
+        <v>64935701.041981198</v>
       </c>
       <c r="M155" s="1">
-        <v>5617493.1035294104</v>
+        <v>69087379.125162795</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -8692,34 +8701,34 @@
         <v>488</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F156" s="1">
-        <v>233</v>
+        <v>55.97</v>
       </c>
       <c r="G156" s="1">
-        <v>194505658</v>
+        <v>2206585543</v>
       </c>
       <c r="H156" s="1">
-        <v>71796824.333333299</v>
+        <v>183714280.666767</v>
       </c>
       <c r="I156" s="1">
-        <v>58454084.428030297</v>
+        <v>204092811.375662</v>
       </c>
       <c r="J156" s="1">
-        <v>68076770.024208993</v>
+        <v>238066227.053754</v>
       </c>
       <c r="K156" s="1">
-        <v>50837791.406499997</v>
+        <v>192680641.18713701</v>
       </c>
       <c r="L156" s="1">
-        <v>47399485.4778409</v>
+        <v>212683881.01150501</v>
       </c>
       <c r="M156" s="1">
-        <v>46280059.667941198</v>
+        <v>237626570.41657299</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -8733,34 +8742,34 @@
         <v>491</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F157" s="1">
-        <v>22.61</v>
+        <v>201</v>
       </c>
       <c r="G157" s="1">
-        <v>1834181554</v>
+        <v>44512598</v>
       </c>
       <c r="H157" s="1">
-        <v>39786466.410666697</v>
+        <v>19188894.789999999</v>
       </c>
       <c r="I157" s="1">
-        <v>39325563.061590903</v>
+        <v>11840647.6</v>
       </c>
       <c r="J157" s="1">
-        <v>45813287.164494</v>
+        <v>13748167.7079682</v>
       </c>
       <c r="K157" s="1">
-        <v>39603259.70025</v>
+        <v>8634267.4279999994</v>
       </c>
       <c r="L157" s="1">
-        <v>47611055.378674202</v>
+        <v>6959385.5962121198</v>
       </c>
       <c r="M157" s="1">
-        <v>46598460.615490198</v>
+        <v>5617493.1035294104</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -8774,34 +8783,34 @@
         <v>494</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F158" s="1">
-        <v>89.4</v>
+        <v>233</v>
       </c>
       <c r="G158" s="1">
-        <v>143244727</v>
+        <v>194505658</v>
       </c>
       <c r="H158" s="1">
-        <v>32210410.493866701</v>
+        <v>71796824.333333299</v>
       </c>
       <c r="I158" s="1">
-        <v>30261930.0130485</v>
+        <v>58454084.428030297</v>
       </c>
       <c r="J158" s="1">
-        <v>35274239.8868424</v>
+        <v>68076770.024208993</v>
       </c>
       <c r="K158" s="1">
-        <v>29591643.248512</v>
+        <v>50837791.406499997</v>
       </c>
       <c r="L158" s="1">
-        <v>30257286.661221199</v>
+        <v>47399485.4778409</v>
       </c>
       <c r="M158" s="1">
-        <v>28306035.552867498</v>
+        <v>46280059.667941198</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -8815,34 +8824,34 @@
         <v>497</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F159" s="1">
-        <v>62.85</v>
+        <v>22.61</v>
       </c>
       <c r="G159" s="1">
-        <v>1557675176</v>
+        <v>1834181554</v>
       </c>
       <c r="H159" s="1">
-        <v>333318301.37566602</v>
+        <v>39786466.410666697</v>
       </c>
       <c r="I159" s="1">
-        <v>320233546.05310601</v>
+        <v>39325563.061590903</v>
       </c>
       <c r="J159" s="1">
-        <v>373375769.30038702</v>
+        <v>45813287.164494</v>
       </c>
       <c r="K159" s="1">
-        <v>320104027.33350003</v>
+        <v>39603259.70025</v>
       </c>
       <c r="L159" s="1">
-        <v>314367458.98908401</v>
+        <v>47611055.378674202</v>
       </c>
       <c r="M159" s="1">
-        <v>359104838.19417602</v>
+        <v>46598460.615490198</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -8856,34 +8865,34 @@
         <v>500</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F160" s="1">
-        <v>52.36</v>
+        <v>89.4</v>
       </c>
       <c r="G160" s="1">
-        <v>2637743772</v>
+        <v>143244727</v>
       </c>
       <c r="H160" s="1">
-        <v>53697639.548666701</v>
+        <v>32210410.493866701</v>
       </c>
       <c r="I160" s="1">
-        <v>54189662.870302998</v>
+        <v>30261930.0130485</v>
       </c>
       <c r="J160" s="1">
-        <v>63145716.4412864</v>
+        <v>35274239.8868424</v>
       </c>
       <c r="K160" s="1">
-        <v>51743781.262199998</v>
+        <v>29591643.248512</v>
       </c>
       <c r="L160" s="1">
-        <v>49795644.035151497</v>
+        <v>30257286.661221199</v>
       </c>
       <c r="M160" s="1">
-        <v>61233532.621215701</v>
+        <v>28306035.552867498</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -8897,34 +8906,34 @@
         <v>503</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F161" s="1">
-        <v>3.665</v>
+        <v>62.85</v>
       </c>
       <c r="G161" s="1">
-        <v>259574298</v>
+        <v>1557675176</v>
       </c>
       <c r="H161" s="1">
-        <v>1071715.06522</v>
+        <v>333318301.37566602</v>
       </c>
       <c r="I161" s="1">
-        <v>1545042.31983485</v>
+        <v>320233546.05310601</v>
       </c>
       <c r="J161" s="1">
-        <v>1799930.5857160401</v>
+        <v>373375769.30038702</v>
       </c>
       <c r="K161" s="1">
-        <v>1363300.177871</v>
+        <v>320104027.33350003</v>
       </c>
       <c r="L161" s="1">
-        <v>1639591.9944386401</v>
+        <v>314367458.98908401</v>
       </c>
       <c r="M161" s="1">
-        <v>1558515.6109523601</v>
+        <v>359104838.19417602</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -8938,34 +8947,34 @@
         <v>506</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F162" s="1">
-        <v>18.87</v>
+        <v>52.36</v>
       </c>
       <c r="G162" s="1">
-        <v>717473508</v>
+        <v>2637743772</v>
       </c>
       <c r="H162" s="1">
-        <v>29231753.535999998</v>
+        <v>53697639.548666701</v>
       </c>
       <c r="I162" s="1">
-        <v>24493687.2690151</v>
+        <v>54189662.870302998</v>
       </c>
       <c r="J162" s="1">
-        <v>28516371.935224801</v>
+        <v>63145716.4412864</v>
       </c>
       <c r="K162" s="1">
-        <v>24022930.343575001</v>
+        <v>51743781.262199998</v>
       </c>
       <c r="L162" s="1">
-        <v>24501332.398950402</v>
+        <v>49795644.035151497</v>
       </c>
       <c r="M162" s="1">
-        <v>28546441.161190499</v>
+        <v>61233532.621215701</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -8979,34 +8988,34 @@
         <v>509</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F163" s="1">
-        <v>22.91</v>
+        <v>18.87</v>
       </c>
       <c r="G163" s="1">
-        <v>527735699</v>
+        <v>717473508</v>
       </c>
       <c r="H163" s="1">
-        <v>27171560.037333298</v>
+        <v>29231753.535999998</v>
       </c>
       <c r="I163" s="1">
-        <v>26600242.754393902</v>
+        <v>24493687.2690151</v>
       </c>
       <c r="J163" s="1">
-        <v>31007463.622887399</v>
+        <v>28516371.935224801</v>
       </c>
       <c r="K163" s="1">
-        <v>25694420.038899999</v>
+        <v>24022930.343575001</v>
       </c>
       <c r="L163" s="1">
-        <v>26320010.4696154</v>
+        <v>24501332.398950402</v>
       </c>
       <c r="M163" s="1">
-        <v>30225478.005863499</v>
+        <v>28546441.161190499</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -9020,34 +9029,34 @@
         <v>512</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F164" s="1">
-        <v>27.55</v>
+        <v>22.91</v>
       </c>
       <c r="G164" s="1">
-        <v>184529605</v>
+        <v>527735699</v>
       </c>
       <c r="H164" s="1">
-        <v>7579685.9606666705</v>
+        <v>27171560.037333298</v>
       </c>
       <c r="I164" s="1">
-        <v>7133328.8018181799</v>
+        <v>26600242.754393902</v>
       </c>
       <c r="J164" s="1">
-        <v>8308738.5850508204</v>
+        <v>31007463.622887399</v>
       </c>
       <c r="K164" s="1">
-        <v>7872406.4499000004</v>
+        <v>25694420.038899999</v>
       </c>
       <c r="L164" s="1">
-        <v>8218672.4543076996</v>
+        <v>26320010.4696154</v>
       </c>
       <c r="M164" s="1">
-        <v>9277063.5724096391</v>
+        <v>30225478.005863499</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -9061,34 +9070,34 @@
         <v>515</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F165" s="1">
-        <v>28.5</v>
+        <v>27.55</v>
       </c>
       <c r="G165" s="1">
-        <v>741723437</v>
+        <v>184529605</v>
       </c>
       <c r="H165" s="1">
-        <v>46180184.9393133</v>
+        <v>7579685.9606666705</v>
       </c>
       <c r="I165" s="1">
-        <v>46730857.720113598</v>
+        <v>7133328.8018181799</v>
       </c>
       <c r="J165" s="1">
-        <v>54455934.867097497</v>
+        <v>8308738.5850508204</v>
       </c>
       <c r="K165" s="1">
-        <v>46294505.968924999</v>
+        <v>7872406.4499000004</v>
       </c>
       <c r="L165" s="1">
-        <v>50096507.089337103</v>
+        <v>8218672.4543076996</v>
       </c>
       <c r="M165" s="1">
-        <v>58896826.106892198</v>
+        <v>9277063.5724096391</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -9102,34 +9111,34 @@
         <v>518</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F166" s="1">
-        <v>62.4</v>
+        <v>28.5</v>
       </c>
       <c r="G166" s="1">
-        <v>170233686</v>
+        <v>741723437</v>
       </c>
       <c r="H166" s="1">
-        <v>8902790.6033333298</v>
+        <v>46180184.9393133</v>
       </c>
       <c r="I166" s="1">
-        <v>7774778.7575757597</v>
+        <v>46730857.720113598</v>
       </c>
       <c r="J166" s="1">
-        <v>9060374.0084394999</v>
+        <v>54455934.867097497</v>
       </c>
       <c r="K166" s="1">
-        <v>7388560.2189999996</v>
+        <v>46294505.968924999</v>
       </c>
       <c r="L166" s="1">
-        <v>7858322.3617424201</v>
+        <v>50096507.089337103</v>
       </c>
       <c r="M166" s="1">
-        <v>8485253.5915019792</v>
+        <v>58896826.106892198</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -9143,34 +9152,34 @@
         <v>521</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F167" s="1">
-        <v>119.2</v>
+        <v>62.4</v>
       </c>
       <c r="G167" s="1">
-        <v>586933775</v>
+        <v>170233686</v>
       </c>
       <c r="H167" s="1">
-        <v>82508689.396653295</v>
+        <v>8902790.6033333298</v>
       </c>
       <c r="I167" s="1">
-        <v>102877582.43767001</v>
+        <v>7774778.7575757597</v>
       </c>
       <c r="J167" s="1">
-        <v>119926911.732161</v>
+        <v>9060374.0084394999</v>
       </c>
       <c r="K167" s="1">
-        <v>100628671.517362</v>
+        <v>7388560.2189999996</v>
       </c>
       <c r="L167" s="1">
-        <v>105480357.709933</v>
+        <v>7858322.3617424201</v>
       </c>
       <c r="M167" s="1">
-        <v>113543783.84716199</v>
+        <v>8485253.5915019792</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -9184,34 +9193,34 @@
         <v>524</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F168" s="1">
-        <v>34.28</v>
+        <v>119.2</v>
       </c>
       <c r="G168" s="1">
-        <v>178549160</v>
+        <v>586933775</v>
       </c>
       <c r="H168" s="1">
-        <v>11788075.1613333</v>
+        <v>82508689.396653295</v>
       </c>
       <c r="I168" s="1">
-        <v>9465144.8883333299</v>
+        <v>102877582.43767001</v>
       </c>
       <c r="J168" s="1">
-        <v>11030886.414287901</v>
+        <v>119926911.732161</v>
       </c>
       <c r="K168" s="1">
-        <v>8725993.3838999905</v>
+        <v>100628671.517362</v>
       </c>
       <c r="L168" s="1">
-        <v>8137427.8014393896</v>
+        <v>105480357.709933</v>
       </c>
       <c r="M168" s="1">
-        <v>8455710.6622134391</v>
+        <v>113543783.84716199</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -9225,34 +9234,34 @@
         <v>527</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F169" s="1">
-        <v>94.72</v>
+        <v>34.28</v>
       </c>
       <c r="G169" s="1">
-        <v>206205440</v>
+        <v>178549160</v>
       </c>
       <c r="H169" s="1">
-        <v>77857253.620666698</v>
+        <v>11788075.1613333</v>
       </c>
       <c r="I169" s="1">
-        <v>89581759.1755303</v>
+        <v>9465144.8883333299</v>
       </c>
       <c r="J169" s="1">
-        <v>104503890.649014</v>
+        <v>11030886.414287901</v>
       </c>
       <c r="K169" s="1">
-        <v>94898815.369749993</v>
+        <v>8725993.3838999905</v>
       </c>
       <c r="L169" s="1">
-        <v>92138931.579280198</v>
+        <v>8137427.8014393896</v>
       </c>
       <c r="M169" s="1">
-        <v>106358868.972707</v>
+        <v>8455710.6622134391</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -9272,28 +9281,28 @@
         <v>17</v>
       </c>
       <c r="F170" s="1">
-        <v>26.05</v>
+        <v>94.72</v>
       </c>
       <c r="G170" s="1">
-        <v>847785030</v>
+        <v>206205440</v>
       </c>
       <c r="H170" s="1">
-        <v>64892531.855666697</v>
+        <v>77857253.620666698</v>
       </c>
       <c r="I170" s="1">
-        <v>54950206.889924198</v>
+        <v>89581759.1755303</v>
       </c>
       <c r="J170" s="1">
-        <v>64013895.233723097</v>
+        <v>104503890.649014</v>
       </c>
       <c r="K170" s="1">
-        <v>56007882.788149998</v>
+        <v>94898815.369749993</v>
       </c>
       <c r="L170" s="1">
-        <v>59305191.750909097</v>
+        <v>92138931.579280198</v>
       </c>
       <c r="M170" s="1">
-        <v>70900219.141936794</v>
+        <v>106358868.972707</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -9307,34 +9316,34 @@
         <v>533</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F171" s="1">
-        <v>26.54</v>
+        <v>26.05</v>
       </c>
       <c r="G171" s="1">
-        <v>591723400</v>
+        <v>847785030</v>
       </c>
       <c r="H171" s="1">
-        <v>20924976.016666699</v>
+        <v>64892531.855666697</v>
       </c>
       <c r="I171" s="1">
-        <v>21511029.5495455</v>
+        <v>54950206.889924198</v>
       </c>
       <c r="J171" s="1">
-        <v>25058669.519553501</v>
+        <v>64013895.233723097</v>
       </c>
       <c r="K171" s="1">
-        <v>20054408.528200001</v>
+        <v>56007882.788149998</v>
       </c>
       <c r="L171" s="1">
-        <v>19463306.8415385</v>
+        <v>59305191.750909097</v>
       </c>
       <c r="M171" s="1">
-        <v>18692744.871807199</v>
+        <v>70900219.141936794</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -9348,34 +9357,34 @@
         <v>536</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F172" s="1">
-        <v>21.88</v>
+        <v>26.54</v>
       </c>
       <c r="G172" s="1">
-        <v>235139589</v>
+        <v>591723400</v>
       </c>
       <c r="H172" s="1">
-        <v>8643934.09333333</v>
+        <v>20924976.016666699</v>
       </c>
       <c r="I172" s="1">
-        <v>8936144.5634848401</v>
+        <v>21511029.5495455</v>
       </c>
       <c r="J172" s="1">
-        <v>10421719.621392399</v>
+        <v>25058669.519553501</v>
       </c>
       <c r="K172" s="1">
-        <v>7698153.4426999995</v>
+        <v>20054408.528200001</v>
       </c>
       <c r="L172" s="1">
-        <v>7286816.4301515101</v>
+        <v>19463306.8415385</v>
       </c>
       <c r="M172" s="1">
-        <v>9127323.0964117609</v>
+        <v>18692744.871807199</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -9389,34 +9398,34 @@
         <v>539</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F173" s="1">
-        <v>27.5</v>
+        <v>21.88</v>
       </c>
       <c r="G173" s="1">
-        <v>109497696</v>
+        <v>235139589</v>
       </c>
       <c r="H173" s="1">
-        <v>5937005.6440000003</v>
+        <v>8643934.09333333</v>
       </c>
       <c r="I173" s="1">
-        <v>5003959.9593939399</v>
+        <v>8936144.5634848401</v>
       </c>
       <c r="J173" s="1">
-        <v>5830430.4162761997</v>
+        <v>10421719.621392399</v>
       </c>
       <c r="K173" s="1">
-        <v>5087217.3641999997</v>
+        <v>7698153.4426999995</v>
       </c>
       <c r="L173" s="1">
-        <v>5192862.0305303</v>
+        <v>7286816.4301515101</v>
       </c>
       <c r="M173" s="1">
-        <v>6393005.7917391304</v>
+        <v>9127323.0964117609</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -9430,33 +9439,74 @@
         <v>542</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="G174" s="1">
+        <v>109497696</v>
+      </c>
+      <c r="H174" s="1">
+        <v>5937005.6440000003</v>
+      </c>
+      <c r="I174" s="1">
+        <v>5003959.9593939399</v>
+      </c>
+      <c r="J174" s="1">
+        <v>5830430.4162761997</v>
+      </c>
+      <c r="K174" s="1">
+        <v>5087217.3641999997</v>
+      </c>
+      <c r="L174" s="1">
+        <v>5192862.0305303</v>
+      </c>
+      <c r="M174" s="1">
+        <v>6393005.7917391304</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F174" s="1">
+      <c r="E175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="1">
         <v>92.76</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G175" s="1">
         <v>232516153</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H175" s="1">
         <v>92817046.1503333</v>
       </c>
-      <c r="I174" s="1">
+      <c r="I175" s="1">
         <v>84694846.164469704</v>
       </c>
-      <c r="J174" s="1">
+      <c r="J175" s="1">
         <v>98733923.395418704</v>
       </c>
-      <c r="K174" s="1">
+      <c r="K175" s="1">
         <v>85708924.989800006</v>
       </c>
-      <c r="L174" s="1">
+      <c r="L175" s="1">
         <v>85672332.305719703</v>
       </c>
-      <c r="M174" s="1">
+      <c r="M175" s="1">
         <v>89760213.108254895</v>
       </c>
     </row>
